--- a/master_sheet_HCV.xlsx
+++ b/master_sheet_HCV.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Station" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="predicted_and_forecast" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="73">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -234,22 +235,32 @@
   <si>
     <t xml:space="preserve">batchsize:32, timestep:4</t>
   </si>
+  <si>
+    <t xml:space="preserve">Actuals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predicted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forecasted Value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-4009]dd\-mm\-yyyy;@"/>
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
-    <numFmt numFmtId="168" formatCode="0%"/>
-    <numFmt numFmtId="169" formatCode="#,##0"/>
-    <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="171" formatCode="[$-4009]dd/mm/yy"/>
+    <numFmt numFmtId="168" formatCode="#,##0"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="170" formatCode="[$-4009]dd/mm/yy"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -294,6 +305,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -327,12 +345,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -359,11 +384,9 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -376,6 +399,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -384,31 +411,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -416,39 +439,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -456,15 +463,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -480,8 +483,20 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -563,7 +578,7 @@
   </sheetPr>
   <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -580,125 +595,125 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="39.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="12.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="2" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="27" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="8.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="3" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="3" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="3" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="27" style="3" width="10.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="33" style="2" width="21.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="6" t="n">
@@ -731,49 +746,49 @@
       <c r="K2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="3" t="n">
         <v>20.5</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="3" t="n">
         <v>55614</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="3" t="n">
         <v>68482</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2" s="3" t="n">
         <v>4657</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="3" t="n">
         <v>7067</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2" s="3" t="n">
         <v>7.91</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2" s="3" t="n">
         <v>143.3</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2" s="3" t="n">
         <v>166.2</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2" s="3" t="n">
         <v>38400</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2" s="3" t="n">
         <v>621483</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2" s="3" t="n">
         <v>368.1</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2" s="3" t="n">
         <v>254.6</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2" s="3" t="n">
         <v>417.1</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Y2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="Z2" s="3" t="n">
         <v>53527</v>
       </c>
       <c r="AA2" s="7" t="n">
@@ -784,7 +799,7 @@
       </c>
       <c r="AC2" s="8" t="n">
         <f aca="false">AA2+AB2</f>
-        <v>0.323099274788962</v>
+        <v>0.323099274788961</v>
       </c>
       <c r="AD2" s="7" t="n">
         <v>0.124850815563364</v>
@@ -797,8 +812,8 @@
         <v>0.185273936037131</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="6" t="n">
@@ -831,49 +846,49 @@
       <c r="K3" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="3" t="n">
         <v>39.6</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="3" t="n">
         <v>63257</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" s="3" t="n">
         <v>61507</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" s="3" t="n">
         <v>3852</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3" s="3" t="n">
         <v>6161</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="Q3" s="3" t="n">
         <v>6.56</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="R3" s="3" t="n">
         <v>143.8</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="S3" s="3" t="n">
         <v>165.7</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="T3" s="3" t="n">
         <v>58500</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="U3" s="3" t="n">
         <v>621483</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="V3" s="3" t="n">
         <v>369</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="W3" s="3" t="n">
         <v>256.1</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="X3" s="3" t="n">
         <v>420</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Y3" s="3" t="n">
         <v>174</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="Z3" s="3" t="n">
         <v>72064</v>
       </c>
       <c r="AA3" s="7" t="n">
@@ -884,7 +899,7 @@
       </c>
       <c r="AC3" s="8" t="n">
         <f aca="false">AA3+AB3</f>
-        <v>0.298518987053799</v>
+        <v>0.2985189870538</v>
       </c>
       <c r="AD3" s="7" t="n">
         <v>0.107500734142652</v>
@@ -894,11 +909,11 @@
       </c>
       <c r="AF3" s="8" t="n">
         <f aca="false">AD3+AE3</f>
-        <v>0.163807219812702</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+        <v>0.163807219812701</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="6" t="n">
@@ -931,49 +946,49 @@
       <c r="K4" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="3" t="n">
         <v>19.1</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="3" t="n">
         <v>62338</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" s="3" t="n">
         <v>53833</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="3" t="n">
         <v>4154</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4" s="3" t="n">
         <v>5899</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="Q4" s="3" t="n">
         <v>8.11</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4" s="3" t="n">
         <v>145.3</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="S4" s="3" t="n">
         <v>166.1</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="T4" s="3" t="n">
         <v>47500</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="U4" s="3" t="n">
         <v>621483</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="V4" s="3" t="n">
         <v>372.5</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="W4" s="3" t="n">
         <v>257.8</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="X4" s="3" t="n">
         <v>422.1</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Y4" s="3" t="n">
         <v>163</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="Z4" s="3" t="n">
         <v>61736</v>
       </c>
       <c r="AA4" s="7" t="n">
@@ -997,8 +1012,8 @@
         <v>0.142264967534902</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="6" t="n">
@@ -1031,49 +1046,49 @@
       <c r="K5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="3" t="n">
         <v>8.9</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="3" t="n">
         <v>84182</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="3" t="n">
         <v>68831</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="3" t="n">
         <v>4959</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5" s="3" t="n">
         <v>7643</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5" s="3" t="n">
         <v>7.57</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5" s="3" t="n">
         <v>148.9</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5" s="3" t="n">
         <v>167.7</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="T5" s="3" t="n">
         <v>50700</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="U5" s="3" t="n">
         <v>621483</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="V5" s="3" t="n">
         <v>374.6</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="W5" s="3" t="n">
         <v>259.3</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="X5" s="3" t="n">
         <v>424.1</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Y5" s="3" t="n">
         <v>172</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="Z5" s="3" t="n">
         <v>57321</v>
       </c>
       <c r="AA5" s="7" t="n">
@@ -1097,8 +1112,8 @@
         <v>0.117201519509489</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="6" t="n">
@@ -1131,49 +1146,49 @@
       <c r="K6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="3" t="n">
         <v>38.4</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="3" t="n">
         <v>99916</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" s="3" t="n">
         <v>49473</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="3" t="n">
         <v>3570</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" s="3" t="n">
         <v>4916</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6" s="3" t="n">
         <v>7.83</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6" s="3" t="n">
         <v>152.3</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6" s="3" t="n">
         <v>170.1</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="T6" s="3" t="n">
         <v>68300</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="U6" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="V6" s="3" t="n">
         <v>376.5</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="W6" s="3" t="n">
         <v>261.4</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="X6" s="3" t="n">
         <v>426.8</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Y6" s="3" t="n">
         <v>101</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="Z6" s="3" t="n">
         <v>84144</v>
       </c>
       <c r="AA6" s="7" t="n">
@@ -1184,7 +1199,7 @@
       </c>
       <c r="AC6" s="8" t="n">
         <f aca="false">AA6+AB6</f>
-        <v>0.211446094912881</v>
+        <v>0.21144609491288</v>
       </c>
       <c r="AD6" s="7" t="n">
         <v>0.0815495429674727</v>
@@ -1197,8 +1212,8 @@
         <v>0.121671451293355</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="6" t="n">
@@ -1231,49 +1246,49 @@
       <c r="K7" s="6" t="n">
         <v>4.4</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="3" t="n">
         <v>83.4</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="3" t="n">
         <v>93522</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7" s="3" t="n">
         <v>58761</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="3" t="n">
         <v>2668</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7" s="3" t="n">
         <v>5250</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7" s="3" t="n">
         <v>7.14</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7" s="3" t="n">
         <v>155</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="S7" s="3" t="n">
         <v>171.7</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="T7" s="3" t="n">
         <v>77500</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="U7" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="V7" s="3" t="n">
         <v>377.4</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="W7" s="3" t="n">
         <v>262.5</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="X7" s="3" t="n">
         <v>428.1</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Y7" s="3" t="n">
         <v>298</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="Z7" s="3" t="n">
         <v>96613</v>
       </c>
       <c r="AA7" s="7" t="n">
@@ -1284,7 +1299,7 @@
       </c>
       <c r="AC7" s="8" t="n">
         <f aca="false">AA7+AB7</f>
-        <v>0.201363329381099</v>
+        <v>0.2013633293811</v>
       </c>
       <c r="AD7" s="7" t="n">
         <v>0.0842060939723513</v>
@@ -1297,8 +1312,8 @@
         <v>0.124550969195188</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="6" t="n">
@@ -1331,49 +1346,49 @@
       <c r="K8" s="6" t="n">
         <v>4.9</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="3" t="n">
         <v>152.3</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="3" t="n">
         <v>107326</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8" s="3" t="n">
         <v>62827</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="3" t="n">
         <v>3463</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8" s="3" t="n">
         <v>6890</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8" s="3" t="n">
         <v>7.83</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8" s="3" t="n">
         <v>155.4</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8" s="3" t="n">
         <v>172.6</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="T8" s="3" t="n">
         <v>83800</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="U8" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="V8" s="3" t="n">
         <v>379.1</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="W8" s="3" t="n">
         <v>264</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="X8" s="3" t="n">
         <v>430.4</v>
       </c>
-      <c r="Y8" s="0" t="n">
+      <c r="Y8" s="3" t="n">
         <v>528</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="Z8" s="3" t="n">
         <v>103563</v>
       </c>
       <c r="AA8" s="7" t="n">
@@ -1397,8 +1412,8 @@
         <v>0.138469828277876</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="6" t="n">
@@ -1431,49 +1446,49 @@
       <c r="K9" s="6" t="n">
         <v>4.9</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="3" t="n">
         <v>327.7</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="3" t="n">
         <v>67047</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9" s="3" t="n">
         <v>67632</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="3" t="n">
         <v>3660</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9" s="3" t="n">
         <v>7115</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9" s="3" t="n">
         <v>6.83</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9" s="3" t="n">
         <v>154</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="S9" s="3" t="n">
         <v>173.4</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="T9" s="3" t="n">
         <v>81800</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="U9" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="V9" s="3" t="n">
         <v>381.5</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="W9" s="3" t="n">
         <v>264.9</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="X9" s="3" t="n">
         <v>434.3</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Y9" s="3" t="n">
         <v>401</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="Z9" s="3" t="n">
         <v>101421</v>
       </c>
       <c r="AA9" s="7" t="n">
@@ -1484,7 +1499,7 @@
       </c>
       <c r="AC9" s="8" t="n">
         <f aca="false">AA9+AB9</f>
-        <v>0.188679492225617</v>
+        <v>0.188679492225616</v>
       </c>
       <c r="AD9" s="7" t="n">
         <v>0.102670828891302</v>
@@ -1497,8 +1512,8 @@
         <v>0.149256498081209</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="6" t="n">
@@ -1531,49 +1546,49 @@
       <c r="K10" s="6" t="n">
         <v>5.4</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="3" t="n">
         <v>263.7</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="3" t="n">
         <v>64809</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="3" t="n">
         <v>58904</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="3" t="n">
         <v>2871</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10" s="3" t="n">
         <v>5852</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q10" s="3" t="n">
         <v>8.28</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10" s="3" t="n">
         <v>153.2</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="S10" s="3" t="n">
         <v>174.3</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="T10" s="3" t="n">
         <v>81200</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="U10" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="V10" s="3" t="n">
         <v>383</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="W10" s="3" t="n">
         <v>266.2</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="X10" s="3" t="n">
         <v>437.1</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Y10" s="3" t="n">
         <v>283</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="Z10" s="3" t="n">
         <v>98745</v>
       </c>
       <c r="AA10" s="7" t="n">
@@ -1584,7 +1599,7 @@
       </c>
       <c r="AC10" s="8" t="n">
         <f aca="false">AA10+AB10</f>
-        <v>0.184666775406422</v>
+        <v>0.184666775406423</v>
       </c>
       <c r="AD10" s="7" t="n">
         <v>0.108084642437016</v>
@@ -1594,11 +1609,11 @@
       </c>
       <c r="AF10" s="8" t="n">
         <f aca="false">AD10+AE10</f>
-        <v>0.157521155417413</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+        <v>0.157521155417412</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="6" t="n">
@@ -1631,49 +1646,49 @@
       <c r="K11" s="6" t="n">
         <v>5.9</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="3" t="n">
         <v>181.3</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="3" t="n">
         <v>125006</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11" s="3" t="n">
         <v>53198</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11" s="3" t="n">
         <v>3994</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11" s="3" t="n">
         <v>6851</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="Q11" s="3" t="n">
         <v>6.43</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="R11" s="3" t="n">
         <v>151.9</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="S11" s="3" t="n">
         <v>175.3</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="T11" s="3" t="n">
         <v>83000</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="U11" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="V11" s="3" t="n">
         <v>384.5</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="W11" s="3" t="n">
         <v>267.3</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="X11" s="3" t="n">
         <v>439</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Y11" s="3" t="n">
         <v>221</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="Z11" s="3" t="n">
         <v>104698</v>
       </c>
       <c r="AA11" s="7" t="n">
@@ -1697,8 +1712,8 @@
         <v>0.153678666534386</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="6" t="n">
@@ -1731,49 +1746,49 @@
       <c r="K12" s="6" t="n">
         <v>5.9</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="3" t="n">
         <v>110.8</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="3" t="n">
         <v>132413</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12" s="3" t="n">
         <v>53484</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="O12" s="3" t="n">
         <v>3892</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12" s="3" t="n">
         <v>4916</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q12" s="3" t="n">
         <v>7.92</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R12" s="3" t="n">
         <v>152.9</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="S12" s="3" t="n">
         <v>176.7</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="T12" s="3" t="n">
         <v>66400</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="U12" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="V12" s="3" t="n">
         <v>387.5</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="W12" s="3" t="n">
         <v>268.7</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="X12" s="3" t="n">
         <v>442.7</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Y12" s="3" t="n">
         <v>208</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="Z12" s="3" t="n">
         <v>86856</v>
       </c>
       <c r="AA12" s="7" t="n">
@@ -1794,11 +1809,11 @@
       </c>
       <c r="AF12" s="8" t="n">
         <f aca="false">AD12+AE12</f>
-        <v>0.155339531763764</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+        <v>0.155339531763765</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="6" t="n">
@@ -1831,49 +1846,49 @@
       <c r="K13" s="6" t="n">
         <v>5.9</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="3" t="n">
         <v>18.7</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="3" t="n">
         <v>77824</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13" s="3" t="n">
         <v>70870</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13" s="3" t="n">
         <v>3972</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13" s="3" t="n">
         <v>7193</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="Q13" s="3" t="n">
         <v>8.03</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="R13" s="3" t="n">
         <v>152.5</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="S13" s="3" t="n">
         <v>176.5</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="T13" s="3" t="n">
         <v>60900</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="U13" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="V13" s="3" t="n">
         <v>390.2</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="W13" s="3" t="n">
         <v>268.74</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="X13" s="3" t="n">
         <v>445</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Y13" s="3" t="n">
         <v>705</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="Z13" s="3" t="n">
         <v>78709</v>
       </c>
       <c r="AA13" s="7" t="n">
@@ -1884,7 +1899,7 @@
       </c>
       <c r="AC13" s="8" t="n">
         <f aca="false">AA13+AB13</f>
-        <v>0.157290042614947</v>
+        <v>0.157290042614946</v>
       </c>
       <c r="AD13" s="7" t="n">
         <v>0.0871070375616246</v>
@@ -1897,8 +1912,8 @@
         <v>0.147645370672527</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="6" t="n">
@@ -1931,49 +1946,49 @@
       <c r="K14" s="6" t="n">
         <v>6.25</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="3" t="n">
         <v>13.6</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="3" t="n">
         <v>66271</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14" s="3" t="n">
         <v>71146</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14" s="3" t="n">
         <v>3641</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="P14" s="3" t="n">
         <v>6360</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="Q14" s="3" t="n">
         <v>8.3</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14" s="3" t="n">
         <v>150.5</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="S14" s="3" t="n">
         <v>175.7</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="T14" s="3" t="n">
         <v>44700</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="U14" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="V14" s="3" t="n">
         <v>391.4</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="W14" s="3" t="n">
         <v>269.61</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="X14" s="3" t="n">
         <v>445.8</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Y14" s="3" t="n">
         <v>1021</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="Z14" s="3" t="n">
         <v>59106</v>
       </c>
       <c r="AA14" s="7" t="n">
@@ -1997,8 +2012,8 @@
         <v>0.136366479833132</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="6" t="n">
@@ -2031,49 +2046,49 @@
       <c r="K15" s="6" t="n">
         <v>6.25</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="3" t="n">
         <v>14.8</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="3" t="n">
         <v>73399</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15" s="3" t="n">
         <v>67202</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="O15" s="3" t="n">
         <v>3100</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15" s="3" t="n">
         <v>5038</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="Q15" s="3" t="n">
         <v>7.11</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="R15" s="3" t="n">
         <v>150.7</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="S15" s="3" t="n">
         <v>176.5</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="T15" s="3" t="n">
         <v>71800</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="U15" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="V15" s="3" t="n">
         <v>392.6</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="W15" s="3" t="n">
         <v>272</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="X15" s="3" t="n">
         <v>447.5</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Y15" s="3" t="n">
         <v>590</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="Z15" s="3" t="n">
         <v>90633</v>
       </c>
       <c r="AA15" s="7" t="n">
@@ -2097,8 +2112,8 @@
         <v>0.129900186570228</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="6" t="n">
@@ -2131,49 +2146,49 @@
       <c r="K16" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16" s="3" t="n">
         <v>7.2</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16" s="3" t="n">
         <v>69673</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="N16" s="3" t="n">
         <v>62543</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="O16" s="3" t="n">
         <v>3251</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="P16" s="3" t="n">
         <v>5183</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="Q16" s="3" t="n">
         <v>7.45</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="R16" s="3" t="n">
         <v>150.9</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="S16" s="3" t="n">
         <v>176.8</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="T16" s="3" t="n">
         <v>65200</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="U16" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="V16" s="3" t="n">
         <v>394.4</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="W16" s="3" t="n">
         <v>273.3</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="X16" s="3" t="n">
         <v>450.4</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Y16" s="3" t="n">
         <v>421</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="Z16" s="3" t="n">
         <v>82874</v>
       </c>
       <c r="AA16" s="7" t="n">
@@ -2197,8 +2212,8 @@
         <v>0.127354286717932</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="6" t="n">
@@ -2231,49 +2246,49 @@
       <c r="K17" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17" s="3" t="n">
         <v>37.6</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17" s="3" t="n">
         <v>92647</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17" s="3" t="n">
         <v>73554</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="O17" s="3" t="n">
         <v>3329</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="P17" s="3" t="n">
         <v>5782</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="Q17" s="3" t="n">
         <v>8.06</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="R17" s="3" t="n">
         <v>151</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="S17" s="3" t="n">
         <v>177.2</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="T17" s="3" t="n">
         <v>62400</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="U17" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="V17" s="3" t="n">
         <v>395.9</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="W17" s="3" t="n">
         <v>274.6</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="X17" s="3" t="n">
         <v>451.9</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Y17" s="3" t="n">
         <v>401</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="Z17" s="3" t="n">
         <v>83948</v>
       </c>
       <c r="AA17" s="7" t="n">
@@ -2297,8 +2312,8 @@
         <v>0.109386672211802</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="6" t="n">
@@ -2331,49 +2346,49 @@
       <c r="K18" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="3" t="n">
         <v>41.4</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18" s="3" t="n">
         <v>86940</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="N18" s="3" t="n">
         <v>50284</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="O18" s="3" t="n">
         <v>3011</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="P18" s="3" t="n">
         <v>4829</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="Q18" s="3" t="n">
         <v>8.54</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="R18" s="3" t="n">
         <v>151.1</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="S18" s="3" t="n">
         <v>178.1</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="T18" s="3" t="n">
         <v>71600</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="U18" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="V18" s="3" t="n">
         <v>397.8</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="W18" s="3" t="n">
         <v>276</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="X18" s="3" t="n">
         <v>454.7</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Y18" s="3" t="n">
         <v>354</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="Z18" s="3" t="n">
         <v>86844</v>
       </c>
       <c r="AA18" s="7" t="n">
@@ -2397,8 +2412,8 @@
         <v>0.116413308864806</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="6" t="n">
@@ -2431,49 +2446,49 @@
       <c r="K19" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19" s="3" t="n">
         <v>67.5</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" s="3" t="n">
         <v>91263</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N19" s="3" t="n">
         <v>64725</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="O19" s="3" t="n">
         <v>2472</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="P19" s="3" t="n">
         <v>5287</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="Q19" s="3" t="n">
         <v>7.64</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="R19" s="3" t="n">
         <v>149.4</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="S19" s="3" t="n">
         <v>179.1</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="T19" s="3" t="n">
         <v>69900</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="U19" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="V19" s="3" t="n">
         <v>401</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="W19" s="3" t="n">
         <v>278.8</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="X19" s="3" t="n">
         <v>457.7</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Y19" s="3" t="n">
         <v>761</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="Z19" s="3" t="n">
         <v>79928</v>
       </c>
       <c r="AA19" s="7" t="n">
@@ -2484,7 +2499,7 @@
       </c>
       <c r="AC19" s="8" t="n">
         <f aca="false">AA19+AB19</f>
-        <v>0.0959990285119777</v>
+        <v>0.0959990285119776</v>
       </c>
       <c r="AD19" s="7" t="n">
         <v>0.054978758575527</v>
@@ -2497,8 +2512,8 @@
         <v>0.112807497741143</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="6" t="n">
@@ -2531,49 +2546,49 @@
       <c r="K20" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20" s="3" t="n">
         <v>148.6</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20" s="3" t="n">
         <v>106620</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="N20" s="3" t="n">
         <v>89787</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="O20" s="3" t="n">
         <v>2724</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="P20" s="3" t="n">
         <v>5881</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="Q20" s="3" t="n">
         <v>8.53</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="R20" s="3" t="n">
         <v>148.9</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="S20" s="3" t="n">
         <v>181</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="T20" s="3" t="n">
         <v>74900</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="U20" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="V20" s="3" t="n">
         <v>401</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="W20" s="3" t="n">
         <v>278.8</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="X20" s="3" t="n">
         <v>457.7</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Y20" s="3" t="n">
         <v>1238</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="Z20" s="3" t="n">
         <v>92266</v>
       </c>
       <c r="AA20" s="7" t="n">
@@ -2597,8 +2612,8 @@
         <v>0.113813879823337</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="6" t="n">
@@ -2631,49 +2646,49 @@
       <c r="K21" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21" s="3" t="n">
         <v>318.4</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21" s="3" t="n">
         <v>67043</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="N21" s="3" t="n">
         <v>84463</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="O21" s="3" t="n">
         <v>2791</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="P21" s="3" t="n">
         <v>6187</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="Q21" s="3" t="n">
         <v>7.88</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="R21" s="3" t="n">
         <v>152.1</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="S21" s="3" t="n">
         <v>186.3</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="T21" s="3" t="n">
         <v>72500</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="U21" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="V21" s="3" t="n">
         <v>408</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="W21" s="3" t="n">
         <v>284.2</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="X21" s="3" t="n">
         <v>462.7</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Y21" s="3" t="n">
         <v>760</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="Z21" s="3" t="n">
         <v>89196</v>
       </c>
       <c r="AA21" s="7" t="n">
@@ -2697,8 +2712,8 @@
         <v>0.112364331208182</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>45169</v>
       </c>
       <c r="B22" s="6" t="n">
@@ -2731,49 +2746,49 @@
       <c r="K22" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22" s="3" t="n">
         <v>162.7</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22" s="3" t="n">
         <v>62123</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="N22" s="3" t="n">
         <v>68403</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="O22" s="3" t="n">
         <v>2782</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="P22" s="3" t="n">
         <v>5328</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="Q22" s="3" t="n">
         <v>8.1</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="R22" s="3" t="n">
         <v>152.5</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="S22" s="3" t="n">
         <v>186.2</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="T22" s="3" t="n">
         <v>75400</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="U22" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="V22" s="3" t="n">
         <v>408.8</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="W22" s="3" t="n">
         <v>287.3</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="X22" s="3" t="n">
         <v>464.5</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Y22" s="3" t="n">
         <v>775</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="Z22" s="3" t="n">
         <v>94125</v>
       </c>
       <c r="AA22" s="7" t="n">
@@ -2797,8 +2812,8 @@
         <v>0.109299121546743</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="6" t="n">
@@ -2831,49 +2846,49 @@
       <c r="K23" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23" s="3" t="n">
         <v>190</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23" s="3" t="n">
         <v>105457</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="N23" s="3" t="n">
         <v>48967</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="O23" s="3" t="n">
         <v>2587</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="P23" s="3" t="n">
         <v>5137</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="Q23" s="3" t="n">
         <v>7.28</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="R23" s="3" t="n">
         <v>151.8</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="S23" s="3" t="n">
         <v>184.1</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="T23" s="3" t="n">
         <v>72600</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="U23" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="V23" s="3" t="n">
         <v>409.5</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="W23" s="3" t="n">
         <v>287.9</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="X23" s="3" t="n">
         <v>465.1</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Y23" s="3" t="n">
         <v>578</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="Z23" s="3" t="n">
         <v>90688</v>
       </c>
       <c r="AA23" s="7" t="n">
@@ -2884,7 +2899,7 @@
       </c>
       <c r="AC23" s="8" t="n">
         <f aca="false">AA23+AB23</f>
-        <v>0.0893791579824202</v>
+        <v>0.0893791579824203</v>
       </c>
       <c r="AD23" s="7" t="n">
         <v>0.0511854442800361</v>
@@ -2894,11 +2909,11 @@
       </c>
       <c r="AF23" s="8" t="n">
         <f aca="false">AD23+AE23</f>
-        <v>0.109354976386516</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+        <v>0.109354976386517</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="6" t="n">
@@ -2931,49 +2946,49 @@
       <c r="K24" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24" s="3" t="n">
         <v>50.8</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24" s="3" t="n">
         <v>125418</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="N24" s="3" t="n">
         <v>55336</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="O24" s="3" t="n">
         <v>3363</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="P24" s="3" t="n">
         <v>6549</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="Q24" s="3" t="n">
         <v>9.42</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="R24" s="3" t="n">
         <v>152.5</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="S24" s="3" t="n">
         <v>185.3</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="T24" s="3" t="n">
         <v>74600</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="U24" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="V24" s="3" t="n">
         <v>410.5</v>
       </c>
-      <c r="W24" s="0" t="n">
+      <c r="W24" s="3" t="n">
         <v>288.8</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="X24" s="3" t="n">
         <v>465.2</v>
       </c>
-      <c r="Y24" s="0" t="n">
+      <c r="Y24" s="3" t="n">
         <v>450</v>
       </c>
-      <c r="Z24" s="0" t="n">
+      <c r="Z24" s="3" t="n">
         <v>94438</v>
       </c>
       <c r="AA24" s="7" t="n">
@@ -2984,7 +2999,7 @@
       </c>
       <c r="AC24" s="8" t="n">
         <f aca="false">AA24+AB24</f>
-        <v>0.0897478372770541</v>
+        <v>0.089747837277054</v>
       </c>
       <c r="AD24" s="7" t="n">
         <v>0.0535824627842187</v>
@@ -2997,8 +3012,8 @@
         <v>0.110279239202258</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="6" t="n">
@@ -3031,49 +3046,49 @@
       <c r="K25" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25" s="3" t="n">
         <v>34.6</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="M25" s="3" t="n">
         <v>78988</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="N25" s="3" t="n">
         <v>55068</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="O25" s="3" t="n">
         <v>2845</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="P25" s="3" t="n">
         <v>6454</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="Q25" s="3" t="n">
         <v>8.88</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="R25" s="3" t="n">
         <v>153.1</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="S25" s="3" t="n">
         <v>186.3</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="T25" s="3" t="n">
         <v>47500</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="U25" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="V25" s="3" t="n">
         <v>412.6</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="W25" s="3" t="n">
         <v>291.8</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="X25" s="3" t="n">
         <v>468.4</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Y25" s="3" t="n">
         <v>464</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="Z25" s="3" t="n">
         <v>60014</v>
       </c>
       <c r="AA25" s="7" t="n">
@@ -3097,8 +3112,8 @@
         <v>0.110612922795246</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="6" t="n">
@@ -3131,49 +3146,49 @@
       <c r="K26" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26" s="3" t="n">
         <v>25.5</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="M26" s="3" t="n">
         <v>52126</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="N26" s="3" t="n">
         <v>72217</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="O26" s="3" t="n">
         <v>3836</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="P26" s="3" t="n">
         <v>6103</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="Q26" s="3" t="n">
         <v>8.65</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="R26" s="3" t="n">
         <v>151.8</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="S26" s="3" t="n">
         <v>185.7</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="T26" s="3" t="n">
         <v>32300</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="U26" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="V26" s="3" t="n">
         <v>415</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="W26" s="3" t="n">
         <v>294.4</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="X26" s="3" t="n">
         <v>471.8</v>
       </c>
-      <c r="Y26" s="0" t="n">
+      <c r="Y26" s="3" t="n">
         <v>713</v>
       </c>
-      <c r="Z26" s="0" t="n">
+      <c r="Z26" s="3" t="n">
         <v>41014</v>
       </c>
       <c r="AA26" s="7" t="n">
@@ -3197,8 +3212,8 @@
         <v>0.107081037364374</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="6" t="n">
@@ -3231,49 +3246,49 @@
       <c r="K27" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27" s="3" t="n">
         <v>7.2</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27" s="3" t="n">
         <v>62774</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="N27" s="3" t="n">
         <v>83306</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="O27" s="3" t="n">
         <v>3509</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="P27" s="3" t="n">
         <v>4642</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="Q27" s="3" t="n">
         <v>6.78</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="R27" s="3" t="n">
         <v>151.1</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="S27" s="3" t="n">
         <v>185.5</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="T27" s="3" t="n">
         <v>60400</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="U27" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="V27" s="3" t="n">
         <v>417</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="W27" s="3" t="n">
         <v>295.8</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="X27" s="3" t="n">
         <v>474.7</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Y27" s="3" t="n">
         <v>910</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="Z27" s="3" t="n">
         <v>74895</v>
       </c>
       <c r="AA27" s="7" t="n">
@@ -3284,7 +3299,7 @@
       </c>
       <c r="AC27" s="8" t="n">
         <f aca="false">AA27+AB27</f>
-        <v>0.0840564780268682</v>
+        <v>0.0840564780268683</v>
       </c>
       <c r="AD27" s="7" t="n">
         <v>0.0494557301088096</v>
@@ -3297,8 +3312,8 @@
         <v>0.106358869093173</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="6" t="n">
@@ -3331,49 +3346,49 @@
       <c r="K28" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28" s="3" t="n">
         <v>19.7</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="M28" s="3" t="n">
         <v>51764</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="N28" s="3" t="n">
         <v>70541</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="O28" s="3" t="n">
         <v>3544</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="P28" s="3" t="n">
         <v>4898</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="Q28" s="3" t="n">
         <v>8.01</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="R28" s="3" t="n">
         <v>151.2</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="S28" s="3" t="n">
         <v>185.8</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="T28" s="3" t="n">
         <v>60400</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="U28" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="V28" s="3" t="n">
         <v>417</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="W28" s="3" t="n">
         <v>295.8</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="X28" s="3" t="n">
         <v>474.7</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Y28" s="3" t="n">
         <v>911</v>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="Z28" s="3" t="n">
         <v>71607</v>
       </c>
       <c r="AA28" s="7" t="n">
@@ -3397,8 +3412,8 @@
         <v>0.103149369264742</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="6" t="n">
@@ -3434,13 +3449,13 @@
       <c r="L29" s="10" t="n">
         <v>28.5</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29" s="3" t="n">
         <v>74549</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="N29" s="3" t="n">
         <v>72243</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="O29" s="3" t="n">
         <v>3480</v>
       </c>
       <c r="P29" s="10" t="n">
@@ -3449,25 +3464,25 @@
       <c r="Q29" s="10" t="n">
         <v>7.64</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="R29" s="3" t="n">
         <v>151.8</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="S29" s="3" t="n">
         <v>185.8</v>
       </c>
       <c r="T29" s="10" t="n">
         <v>60400</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="U29" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="V29" s="3" t="n">
         <v>417</v>
       </c>
-      <c r="W29" s="0" t="n">
+      <c r="W29" s="3" t="n">
         <v>295.8</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="X29" s="3" t="n">
         <v>474.7</v>
       </c>
       <c r="Y29" s="10" t="n">
@@ -3484,7 +3499,7 @@
       </c>
       <c r="AC29" s="11" t="n">
         <f aca="false">AA29+AB29</f>
-        <v>0.0608870652485499</v>
+        <v>0.06088706524855</v>
       </c>
       <c r="AD29" s="7" t="n">
         <v>0.038501754273883</v>
@@ -3494,10 +3509,10 @@
       </c>
       <c r="AF29" s="8" t="n">
         <f aca="false">AD29+AE29</f>
-        <v>0.0894155245985075</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.0894155245985076</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -3513,74 +3528,74 @@
       <c r="N30" s="12"/>
       <c r="Q30" s="13"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="AC31" s="14"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="AC32" s="16"/>
-      <c r="AF32" s="17"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="AC33" s="16"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="AC34" s="16"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC35" s="16"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="18"/>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="AC32" s="2"/>
+      <c r="AF32" s="15"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="AC33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="AC34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AC35" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F38" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3592,8 +3607,8 @@
   </sheetPr>
   <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3607,125 +3622,125 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="39.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="12.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="2" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="27" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="8.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="3" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="3" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="3" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="27" style="3" width="10.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="33" style="2" width="21.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="6" t="n">
@@ -3758,49 +3773,49 @@
       <c r="K2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="3" t="n">
         <v>20.5</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="3" t="n">
         <v>55614</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="3" t="n">
         <v>68482</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2" s="3" t="n">
         <v>4657</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="3" t="n">
         <v>7067</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2" s="3" t="n">
         <v>7.91</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2" s="3" t="n">
         <v>143.3</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2" s="3" t="n">
         <v>166.2</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2" s="3" t="n">
         <v>38400</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2" s="3" t="n">
         <v>621483</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2" s="3" t="n">
         <v>368.1</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2" s="3" t="n">
         <v>254.6</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2" s="3" t="n">
         <v>417.1</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Y2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="Z2" s="3" t="n">
         <v>53527</v>
       </c>
       <c r="AA2" s="7" t="n">
@@ -3811,7 +3826,7 @@
       </c>
       <c r="AC2" s="8" t="n">
         <f aca="false">AA2+AB2</f>
-        <v>0.323099274788962</v>
+        <v>0.323099274788961</v>
       </c>
       <c r="AD2" s="7" t="n">
         <v>0.124850815563364</v>
@@ -3824,8 +3839,8 @@
         <v>0.185273936037131</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="6" t="n">
@@ -3858,49 +3873,49 @@
       <c r="K3" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="3" t="n">
         <v>39.6</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="3" t="n">
         <v>63257</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" s="3" t="n">
         <v>61507</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" s="3" t="n">
         <v>3852</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3" s="3" t="n">
         <v>6161</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="Q3" s="3" t="n">
         <v>6.56</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="R3" s="3" t="n">
         <v>143.8</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="S3" s="3" t="n">
         <v>165.7</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="T3" s="3" t="n">
         <v>58500</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="U3" s="3" t="n">
         <v>621483</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="V3" s="3" t="n">
         <v>369</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="W3" s="3" t="n">
         <v>256.1</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="X3" s="3" t="n">
         <v>420</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Y3" s="3" t="n">
         <v>174</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="Z3" s="3" t="n">
         <v>72064</v>
       </c>
       <c r="AA3" s="7" t="n">
@@ -3911,7 +3926,7 @@
       </c>
       <c r="AC3" s="8" t="n">
         <f aca="false">AA3+AB3</f>
-        <v>0.298518987053799</v>
+        <v>0.2985189870538</v>
       </c>
       <c r="AD3" s="7" t="n">
         <v>0.107500734142652</v>
@@ -3921,11 +3936,11 @@
       </c>
       <c r="AF3" s="8" t="n">
         <f aca="false">AD3+AE3</f>
-        <v>0.163807219812702</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+        <v>0.163807219812701</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="6" t="n">
@@ -3958,49 +3973,49 @@
       <c r="K4" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="3" t="n">
         <v>19.1</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="3" t="n">
         <v>62338</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" s="3" t="n">
         <v>53833</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="3" t="n">
         <v>4154</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4" s="3" t="n">
         <v>5899</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="Q4" s="3" t="n">
         <v>8.11</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4" s="3" t="n">
         <v>145.3</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="S4" s="3" t="n">
         <v>166.1</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="T4" s="3" t="n">
         <v>47500</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="U4" s="3" t="n">
         <v>621483</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="V4" s="3" t="n">
         <v>372.5</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="W4" s="3" t="n">
         <v>257.8</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="X4" s="3" t="n">
         <v>422.1</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Y4" s="3" t="n">
         <v>163</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="Z4" s="3" t="n">
         <v>61736</v>
       </c>
       <c r="AA4" s="7" t="n">
@@ -4024,8 +4039,8 @@
         <v>0.142264967534902</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="6" t="n">
@@ -4058,49 +4073,49 @@
       <c r="K5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="3" t="n">
         <v>8.9</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="3" t="n">
         <v>84182</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="3" t="n">
         <v>68831</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="3" t="n">
         <v>4959</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5" s="3" t="n">
         <v>7643</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5" s="3" t="n">
         <v>7.57</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5" s="3" t="n">
         <v>148.9</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5" s="3" t="n">
         <v>167.7</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="T5" s="3" t="n">
         <v>50700</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="U5" s="3" t="n">
         <v>621483</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="V5" s="3" t="n">
         <v>374.6</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="W5" s="3" t="n">
         <v>259.3</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="X5" s="3" t="n">
         <v>424.1</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Y5" s="3" t="n">
         <v>172</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="Z5" s="3" t="n">
         <v>57321</v>
       </c>
       <c r="AA5" s="7" t="n">
@@ -4124,8 +4139,8 @@
         <v>0.117201519509489</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="6" t="n">
@@ -4158,49 +4173,49 @@
       <c r="K6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="3" t="n">
         <v>38.4</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="3" t="n">
         <v>99916</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" s="3" t="n">
         <v>49473</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="3" t="n">
         <v>3570</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" s="3" t="n">
         <v>4916</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6" s="3" t="n">
         <v>7.83</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6" s="3" t="n">
         <v>152.3</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6" s="3" t="n">
         <v>170.1</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="T6" s="3" t="n">
         <v>68300</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="U6" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="V6" s="3" t="n">
         <v>376.5</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="W6" s="3" t="n">
         <v>261.4</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="X6" s="3" t="n">
         <v>426.8</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Y6" s="3" t="n">
         <v>101</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="Z6" s="3" t="n">
         <v>84144</v>
       </c>
       <c r="AA6" s="7" t="n">
@@ -4211,7 +4226,7 @@
       </c>
       <c r="AC6" s="8" t="n">
         <f aca="false">AA6+AB6</f>
-        <v>0.211446094912881</v>
+        <v>0.21144609491288</v>
       </c>
       <c r="AD6" s="7" t="n">
         <v>0.0815495429674727</v>
@@ -4224,8 +4239,8 @@
         <v>0.121671451293355</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="6" t="n">
@@ -4258,49 +4273,49 @@
       <c r="K7" s="6" t="n">
         <v>4.4</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="3" t="n">
         <v>83.4</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="3" t="n">
         <v>93522</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7" s="3" t="n">
         <v>58761</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="3" t="n">
         <v>2668</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7" s="3" t="n">
         <v>5250</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7" s="3" t="n">
         <v>7.14</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7" s="3" t="n">
         <v>155</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="S7" s="3" t="n">
         <v>171.7</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="T7" s="3" t="n">
         <v>77500</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="U7" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="V7" s="3" t="n">
         <v>377.4</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="W7" s="3" t="n">
         <v>262.5</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="X7" s="3" t="n">
         <v>428.1</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Y7" s="3" t="n">
         <v>298</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="Z7" s="3" t="n">
         <v>96613</v>
       </c>
       <c r="AA7" s="7" t="n">
@@ -4311,7 +4326,7 @@
       </c>
       <c r="AC7" s="8" t="n">
         <f aca="false">AA7+AB7</f>
-        <v>0.201363329381099</v>
+        <v>0.2013633293811</v>
       </c>
       <c r="AD7" s="7" t="n">
         <v>0.0842060939723513</v>
@@ -4324,8 +4339,8 @@
         <v>0.124550969195188</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="6" t="n">
@@ -4358,49 +4373,49 @@
       <c r="K8" s="6" t="n">
         <v>4.9</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="3" t="n">
         <v>152.3</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="3" t="n">
         <v>107326</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8" s="3" t="n">
         <v>62827</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="3" t="n">
         <v>3463</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8" s="3" t="n">
         <v>6890</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8" s="3" t="n">
         <v>7.83</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8" s="3" t="n">
         <v>155.4</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8" s="3" t="n">
         <v>172.6</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="T8" s="3" t="n">
         <v>83800</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="U8" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="V8" s="3" t="n">
         <v>379.1</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="W8" s="3" t="n">
         <v>264</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="X8" s="3" t="n">
         <v>430.4</v>
       </c>
-      <c r="Y8" s="0" t="n">
+      <c r="Y8" s="3" t="n">
         <v>528</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="Z8" s="3" t="n">
         <v>103563</v>
       </c>
       <c r="AA8" s="7" t="n">
@@ -4424,8 +4439,8 @@
         <v>0.138469828277876</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="6" t="n">
@@ -4458,49 +4473,49 @@
       <c r="K9" s="6" t="n">
         <v>4.9</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="3" t="n">
         <v>327.7</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="3" t="n">
         <v>67047</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9" s="3" t="n">
         <v>67632</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="3" t="n">
         <v>3660</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9" s="3" t="n">
         <v>7115</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9" s="3" t="n">
         <v>6.83</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9" s="3" t="n">
         <v>154</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="S9" s="3" t="n">
         <v>173.4</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="T9" s="3" t="n">
         <v>81800</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="U9" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="V9" s="3" t="n">
         <v>381.5</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="W9" s="3" t="n">
         <v>264.9</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="X9" s="3" t="n">
         <v>434.3</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Y9" s="3" t="n">
         <v>401</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="Z9" s="3" t="n">
         <v>101421</v>
       </c>
       <c r="AA9" s="7" t="n">
@@ -4511,7 +4526,7 @@
       </c>
       <c r="AC9" s="8" t="n">
         <f aca="false">AA9+AB9</f>
-        <v>0.188679492225617</v>
+        <v>0.188679492225616</v>
       </c>
       <c r="AD9" s="7" t="n">
         <v>0.102670828891302</v>
@@ -4524,8 +4539,8 @@
         <v>0.149256498081209</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="6" t="n">
@@ -4558,49 +4573,49 @@
       <c r="K10" s="6" t="n">
         <v>5.4</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="3" t="n">
         <v>263.7</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="3" t="n">
         <v>64809</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="3" t="n">
         <v>58904</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="3" t="n">
         <v>2871</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10" s="3" t="n">
         <v>5852</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q10" s="3" t="n">
         <v>8.28</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10" s="3" t="n">
         <v>153.2</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="S10" s="3" t="n">
         <v>174.3</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="T10" s="3" t="n">
         <v>81200</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="U10" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="V10" s="3" t="n">
         <v>383</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="W10" s="3" t="n">
         <v>266.2</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="X10" s="3" t="n">
         <v>437.1</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Y10" s="3" t="n">
         <v>283</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="Z10" s="3" t="n">
         <v>98745</v>
       </c>
       <c r="AA10" s="7" t="n">
@@ -4611,7 +4626,7 @@
       </c>
       <c r="AC10" s="8" t="n">
         <f aca="false">AA10+AB10</f>
-        <v>0.184666775406422</v>
+        <v>0.184666775406423</v>
       </c>
       <c r="AD10" s="7" t="n">
         <v>0.108084642437016</v>
@@ -4621,11 +4636,11 @@
       </c>
       <c r="AF10" s="8" t="n">
         <f aca="false">AD10+AE10</f>
-        <v>0.157521155417413</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+        <v>0.157521155417412</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="6" t="n">
@@ -4658,49 +4673,49 @@
       <c r="K11" s="6" t="n">
         <v>5.9</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="3" t="n">
         <v>181.3</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="3" t="n">
         <v>125006</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11" s="3" t="n">
         <v>53198</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11" s="3" t="n">
         <v>3994</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11" s="3" t="n">
         <v>6851</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="Q11" s="3" t="n">
         <v>6.43</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="R11" s="3" t="n">
         <v>151.9</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="S11" s="3" t="n">
         <v>175.3</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="T11" s="3" t="n">
         <v>83000</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="U11" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="V11" s="3" t="n">
         <v>384.5</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="W11" s="3" t="n">
         <v>267.3</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="X11" s="3" t="n">
         <v>439</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Y11" s="3" t="n">
         <v>221</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="Z11" s="3" t="n">
         <v>104698</v>
       </c>
       <c r="AA11" s="7" t="n">
@@ -4724,8 +4739,8 @@
         <v>0.153678666534386</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="6" t="n">
@@ -4758,49 +4773,49 @@
       <c r="K12" s="6" t="n">
         <v>5.9</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="3" t="n">
         <v>110.8</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="3" t="n">
         <v>132413</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12" s="3" t="n">
         <v>53484</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="O12" s="3" t="n">
         <v>3892</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12" s="3" t="n">
         <v>4916</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q12" s="3" t="n">
         <v>7.92</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R12" s="3" t="n">
         <v>152.9</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="S12" s="3" t="n">
         <v>176.7</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="T12" s="3" t="n">
         <v>66400</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="U12" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="V12" s="3" t="n">
         <v>387.5</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="W12" s="3" t="n">
         <v>268.7</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="X12" s="3" t="n">
         <v>442.7</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Y12" s="3" t="n">
         <v>208</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="Z12" s="3" t="n">
         <v>86856</v>
       </c>
       <c r="AA12" s="7" t="n">
@@ -4821,11 +4836,11 @@
       </c>
       <c r="AF12" s="8" t="n">
         <f aca="false">AD12+AE12</f>
-        <v>0.155339531763764</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+        <v>0.155339531763765</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="6" t="n">
@@ -4858,49 +4873,49 @@
       <c r="K13" s="6" t="n">
         <v>5.9</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="3" t="n">
         <v>18.7</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="3" t="n">
         <v>77824</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13" s="3" t="n">
         <v>70870</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13" s="3" t="n">
         <v>3972</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13" s="3" t="n">
         <v>7193</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="Q13" s="3" t="n">
         <v>8.03</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="R13" s="3" t="n">
         <v>152.5</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="S13" s="3" t="n">
         <v>176.5</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="T13" s="3" t="n">
         <v>60900</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="U13" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="V13" s="3" t="n">
         <v>390.2</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="W13" s="3" t="n">
         <v>268.74</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="X13" s="3" t="n">
         <v>445</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Y13" s="3" t="n">
         <v>705</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="Z13" s="3" t="n">
         <v>78709</v>
       </c>
       <c r="AA13" s="7" t="n">
@@ -4911,7 +4926,7 @@
       </c>
       <c r="AC13" s="8" t="n">
         <f aca="false">AA13+AB13</f>
-        <v>0.157290042614947</v>
+        <v>0.157290042614946</v>
       </c>
       <c r="AD13" s="7" t="n">
         <v>0.0871070375616246</v>
@@ -4924,8 +4939,8 @@
         <v>0.147645370672527</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="6" t="n">
@@ -4958,49 +4973,49 @@
       <c r="K14" s="6" t="n">
         <v>6.25</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="3" t="n">
         <v>13.6</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="3" t="n">
         <v>66271</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14" s="3" t="n">
         <v>71146</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14" s="3" t="n">
         <v>3641</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="P14" s="3" t="n">
         <v>6360</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="Q14" s="3" t="n">
         <v>8.3</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14" s="3" t="n">
         <v>150.5</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="S14" s="3" t="n">
         <v>175.7</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="T14" s="3" t="n">
         <v>44700</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="U14" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="V14" s="3" t="n">
         <v>391.4</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="W14" s="3" t="n">
         <v>269.61</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="X14" s="3" t="n">
         <v>445.8</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Y14" s="3" t="n">
         <v>1021</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="Z14" s="3" t="n">
         <v>59106</v>
       </c>
       <c r="AA14" s="7" t="n">
@@ -5024,8 +5039,8 @@
         <v>0.136366479833132</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="6" t="n">
@@ -5058,49 +5073,49 @@
       <c r="K15" s="6" t="n">
         <v>6.25</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="3" t="n">
         <v>14.8</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="3" t="n">
         <v>73399</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15" s="3" t="n">
         <v>67202</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="O15" s="3" t="n">
         <v>3100</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15" s="3" t="n">
         <v>5038</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="Q15" s="3" t="n">
         <v>7.11</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="R15" s="3" t="n">
         <v>150.7</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="S15" s="3" t="n">
         <v>176.5</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="T15" s="3" t="n">
         <v>71800</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="U15" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="V15" s="3" t="n">
         <v>392.6</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="W15" s="3" t="n">
         <v>272</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="X15" s="3" t="n">
         <v>447.5</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Y15" s="3" t="n">
         <v>590</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="Z15" s="3" t="n">
         <v>90633</v>
       </c>
       <c r="AA15" s="7" t="n">
@@ -5124,8 +5139,8 @@
         <v>0.129900186570228</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="6" t="n">
@@ -5158,49 +5173,49 @@
       <c r="K16" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16" s="3" t="n">
         <v>7.2</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16" s="3" t="n">
         <v>69673</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="N16" s="3" t="n">
         <v>62543</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="O16" s="3" t="n">
         <v>3251</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="P16" s="3" t="n">
         <v>5183</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="Q16" s="3" t="n">
         <v>7.45</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="R16" s="3" t="n">
         <v>150.9</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="S16" s="3" t="n">
         <v>176.8</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="T16" s="3" t="n">
         <v>65200</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="U16" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="V16" s="3" t="n">
         <v>394.4</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="W16" s="3" t="n">
         <v>273.3</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="X16" s="3" t="n">
         <v>450.4</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Y16" s="3" t="n">
         <v>421</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="Z16" s="3" t="n">
         <v>82874</v>
       </c>
       <c r="AA16" s="7" t="n">
@@ -5224,8 +5239,8 @@
         <v>0.127354286717932</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="6" t="n">
@@ -5258,49 +5273,49 @@
       <c r="K17" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17" s="3" t="n">
         <v>37.6</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17" s="3" t="n">
         <v>92647</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17" s="3" t="n">
         <v>73554</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="O17" s="3" t="n">
         <v>3329</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="P17" s="3" t="n">
         <v>5782</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="Q17" s="3" t="n">
         <v>8.06</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="R17" s="3" t="n">
         <v>151</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="S17" s="3" t="n">
         <v>177.2</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="T17" s="3" t="n">
         <v>62400</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="U17" s="3" t="n">
         <v>631232</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="V17" s="3" t="n">
         <v>395.9</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="W17" s="3" t="n">
         <v>274.6</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="X17" s="3" t="n">
         <v>451.9</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Y17" s="3" t="n">
         <v>401</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="Z17" s="3" t="n">
         <v>83948</v>
       </c>
       <c r="AA17" s="7" t="n">
@@ -5324,8 +5339,8 @@
         <v>0.109386672211802</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="6" t="n">
@@ -5358,49 +5373,49 @@
       <c r="K18" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="3" t="n">
         <v>41.4</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18" s="3" t="n">
         <v>86940</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="N18" s="3" t="n">
         <v>50284</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="O18" s="3" t="n">
         <v>3011</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="P18" s="3" t="n">
         <v>4829</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="Q18" s="3" t="n">
         <v>8.54</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="R18" s="3" t="n">
         <v>151.1</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="S18" s="3" t="n">
         <v>178.1</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="T18" s="3" t="n">
         <v>71600</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="U18" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="V18" s="3" t="n">
         <v>397.8</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="W18" s="3" t="n">
         <v>276</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="X18" s="3" t="n">
         <v>454.7</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Y18" s="3" t="n">
         <v>354</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="Z18" s="3" t="n">
         <v>86844</v>
       </c>
       <c r="AA18" s="7" t="n">
@@ -5424,8 +5439,8 @@
         <v>0.116413308864806</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="6" t="n">
@@ -5458,49 +5473,49 @@
       <c r="K19" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19" s="3" t="n">
         <v>67.5</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" s="3" t="n">
         <v>91263</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N19" s="3" t="n">
         <v>64725</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="O19" s="3" t="n">
         <v>2472</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="P19" s="3" t="n">
         <v>5287</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="Q19" s="3" t="n">
         <v>7.64</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="R19" s="3" t="n">
         <v>149.4</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="S19" s="3" t="n">
         <v>179.1</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="T19" s="3" t="n">
         <v>69900</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="U19" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="V19" s="3" t="n">
         <v>401</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="W19" s="3" t="n">
         <v>278.8</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="X19" s="3" t="n">
         <v>457.7</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Y19" s="3" t="n">
         <v>761</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="Z19" s="3" t="n">
         <v>79928</v>
       </c>
       <c r="AA19" s="7" t="n">
@@ -5511,7 +5526,7 @@
       </c>
       <c r="AC19" s="8" t="n">
         <f aca="false">AA19+AB19</f>
-        <v>0.0959990285119777</v>
+        <v>0.0959990285119776</v>
       </c>
       <c r="AD19" s="7" t="n">
         <v>0.054978758575527</v>
@@ -5524,8 +5539,8 @@
         <v>0.112807497741143</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="6" t="n">
@@ -5558,49 +5573,49 @@
       <c r="K20" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20" s="3" t="n">
         <v>148.6</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20" s="3" t="n">
         <v>106620</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="N20" s="3" t="n">
         <v>89787</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="O20" s="3" t="n">
         <v>2724</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="P20" s="3" t="n">
         <v>5881</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="Q20" s="3" t="n">
         <v>8.53</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="R20" s="3" t="n">
         <v>148.9</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="S20" s="3" t="n">
         <v>181</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="T20" s="3" t="n">
         <v>74900</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="U20" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="V20" s="3" t="n">
         <v>401</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="W20" s="3" t="n">
         <v>278.8</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="X20" s="3" t="n">
         <v>457.7</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Y20" s="3" t="n">
         <v>1238</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="Z20" s="3" t="n">
         <v>92266</v>
       </c>
       <c r="AA20" s="7" t="n">
@@ -5624,8 +5639,8 @@
         <v>0.113813879823337</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="6" t="n">
@@ -5658,49 +5673,49 @@
       <c r="K21" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21" s="3" t="n">
         <v>318.4</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21" s="3" t="n">
         <v>67043</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="N21" s="3" t="n">
         <v>84463</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="O21" s="3" t="n">
         <v>2791</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="P21" s="3" t="n">
         <v>6187</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="Q21" s="3" t="n">
         <v>7.88</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="R21" s="3" t="n">
         <v>152.1</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="S21" s="3" t="n">
         <v>186.3</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="T21" s="3" t="n">
         <v>72500</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="U21" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="V21" s="3" t="n">
         <v>408</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="W21" s="3" t="n">
         <v>284.2</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="X21" s="3" t="n">
         <v>462.7</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Y21" s="3" t="n">
         <v>760</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="Z21" s="3" t="n">
         <v>89196</v>
       </c>
       <c r="AA21" s="7" t="n">
@@ -5724,8 +5739,8 @@
         <v>0.112364331208182</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>45169</v>
       </c>
       <c r="B22" s="6" t="n">
@@ -5758,49 +5773,49 @@
       <c r="K22" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22" s="3" t="n">
         <v>162.7</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22" s="3" t="n">
         <v>62123</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="N22" s="3" t="n">
         <v>68403</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="O22" s="3" t="n">
         <v>2782</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="P22" s="3" t="n">
         <v>5328</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="Q22" s="3" t="n">
         <v>8.1</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="R22" s="3" t="n">
         <v>152.5</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="S22" s="3" t="n">
         <v>186.2</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="T22" s="3" t="n">
         <v>75400</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="U22" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="V22" s="3" t="n">
         <v>408.8</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="W22" s="3" t="n">
         <v>287.3</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="X22" s="3" t="n">
         <v>464.5</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Y22" s="3" t="n">
         <v>775</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="Z22" s="3" t="n">
         <v>94125</v>
       </c>
       <c r="AA22" s="7" t="n">
@@ -5824,8 +5839,8 @@
         <v>0.109299121546743</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="6" t="n">
@@ -5858,49 +5873,49 @@
       <c r="K23" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23" s="3" t="n">
         <v>190</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23" s="3" t="n">
         <v>105457</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="N23" s="3" t="n">
         <v>48967</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="O23" s="3" t="n">
         <v>2587</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="P23" s="3" t="n">
         <v>5137</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="Q23" s="3" t="n">
         <v>7.28</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="R23" s="3" t="n">
         <v>151.8</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="S23" s="3" t="n">
         <v>184.1</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="T23" s="3" t="n">
         <v>72600</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="U23" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="V23" s="3" t="n">
         <v>409.5</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="W23" s="3" t="n">
         <v>287.9</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="X23" s="3" t="n">
         <v>465.1</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Y23" s="3" t="n">
         <v>578</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="Z23" s="3" t="n">
         <v>90688</v>
       </c>
       <c r="AA23" s="7" t="n">
@@ -5911,7 +5926,7 @@
       </c>
       <c r="AC23" s="8" t="n">
         <f aca="false">AA23+AB23</f>
-        <v>0.0893791579824202</v>
+        <v>0.0893791579824203</v>
       </c>
       <c r="AD23" s="7" t="n">
         <v>0.0511854442800361</v>
@@ -5921,11 +5936,11 @@
       </c>
       <c r="AF23" s="8" t="n">
         <f aca="false">AD23+AE23</f>
-        <v>0.109354976386516</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+        <v>0.109354976386517</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="6" t="n">
@@ -5958,49 +5973,49 @@
       <c r="K24" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24" s="3" t="n">
         <v>50.8</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24" s="3" t="n">
         <v>125418</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="N24" s="3" t="n">
         <v>55336</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="O24" s="3" t="n">
         <v>3363</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="P24" s="3" t="n">
         <v>6549</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="Q24" s="3" t="n">
         <v>9.42</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="R24" s="3" t="n">
         <v>152.5</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="S24" s="3" t="n">
         <v>185.3</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="T24" s="3" t="n">
         <v>74600</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="U24" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="V24" s="3" t="n">
         <v>410.5</v>
       </c>
-      <c r="W24" s="0" t="n">
+      <c r="W24" s="3" t="n">
         <v>288.8</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="X24" s="3" t="n">
         <v>465.2</v>
       </c>
-      <c r="Y24" s="0" t="n">
+      <c r="Y24" s="3" t="n">
         <v>450</v>
       </c>
-      <c r="Z24" s="0" t="n">
+      <c r="Z24" s="3" t="n">
         <v>94438</v>
       </c>
       <c r="AA24" s="7" t="n">
@@ -6011,7 +6026,7 @@
       </c>
       <c r="AC24" s="8" t="n">
         <f aca="false">AA24+AB24</f>
-        <v>0.0897478372770541</v>
+        <v>0.089747837277054</v>
       </c>
       <c r="AD24" s="7" t="n">
         <v>0.0535824627842187</v>
@@ -6024,8 +6039,8 @@
         <v>0.110279239202258</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="6" t="n">
@@ -6058,49 +6073,49 @@
       <c r="K25" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25" s="3" t="n">
         <v>34.6</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="M25" s="3" t="n">
         <v>78988</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="N25" s="3" t="n">
         <v>55068</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="O25" s="3" t="n">
         <v>2845</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="P25" s="3" t="n">
         <v>6454</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="Q25" s="3" t="n">
         <v>8.88</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="R25" s="3" t="n">
         <v>153.1</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="S25" s="3" t="n">
         <v>186.3</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="T25" s="3" t="n">
         <v>47500</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="U25" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="V25" s="3" t="n">
         <v>412.6</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="W25" s="3" t="n">
         <v>291.8</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="X25" s="3" t="n">
         <v>468.4</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Y25" s="3" t="n">
         <v>464</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="Z25" s="3" t="n">
         <v>60014</v>
       </c>
       <c r="AA25" s="7" t="n">
@@ -6124,8 +6139,8 @@
         <v>0.110612922795246</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="6" t="n">
@@ -6158,49 +6173,49 @@
       <c r="K26" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26" s="3" t="n">
         <v>25.5</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="M26" s="3" t="n">
         <v>52126</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="N26" s="3" t="n">
         <v>72217</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="O26" s="3" t="n">
         <v>3836</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="P26" s="3" t="n">
         <v>6103</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="Q26" s="3" t="n">
         <v>8.65</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="R26" s="3" t="n">
         <v>151.8</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="S26" s="3" t="n">
         <v>185.7</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="T26" s="3" t="n">
         <v>32300</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="U26" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="V26" s="3" t="n">
         <v>415</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="W26" s="3" t="n">
         <v>294.4</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="X26" s="3" t="n">
         <v>471.8</v>
       </c>
-      <c r="Y26" s="0" t="n">
+      <c r="Y26" s="3" t="n">
         <v>713</v>
       </c>
-      <c r="Z26" s="0" t="n">
+      <c r="Z26" s="3" t="n">
         <v>41014</v>
       </c>
       <c r="AA26" s="7" t="n">
@@ -6224,8 +6239,8 @@
         <v>0.107081037364374</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="6" t="n">
@@ -6258,49 +6273,49 @@
       <c r="K27" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27" s="3" t="n">
         <v>7.2</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27" s="3" t="n">
         <v>62774</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="N27" s="3" t="n">
         <v>83306</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="O27" s="3" t="n">
         <v>3509</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="P27" s="3" t="n">
         <v>4642</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="Q27" s="3" t="n">
         <v>6.78</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="R27" s="3" t="n">
         <v>151.1</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="S27" s="3" t="n">
         <v>185.5</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="T27" s="3" t="n">
         <v>60400</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="U27" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="V27" s="3" t="n">
         <v>417</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="W27" s="3" t="n">
         <v>295.8</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="X27" s="3" t="n">
         <v>474.7</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Y27" s="3" t="n">
         <v>910</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="Z27" s="3" t="n">
         <v>74895</v>
       </c>
       <c r="AA27" s="7" t="n">
@@ -6311,7 +6326,7 @@
       </c>
       <c r="AC27" s="8" t="n">
         <f aca="false">AA27+AB27</f>
-        <v>0.0840564780268682</v>
+        <v>0.0840564780268683</v>
       </c>
       <c r="AD27" s="7" t="n">
         <v>0.0494557301088096</v>
@@ -6324,8 +6339,8 @@
         <v>0.106358869093173</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="6" t="n">
@@ -6358,49 +6373,49 @@
       <c r="K28" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28" s="3" t="n">
         <v>19.7</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="M28" s="3" t="n">
         <v>51764</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="N28" s="3" t="n">
         <v>70541</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="O28" s="3" t="n">
         <v>3544</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="P28" s="3" t="n">
         <v>4898</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="Q28" s="3" t="n">
         <v>8.01</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="R28" s="3" t="n">
         <v>151.2</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="S28" s="3" t="n">
         <v>185.8</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="T28" s="3" t="n">
         <v>60400</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="U28" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="V28" s="3" t="n">
         <v>417</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="W28" s="3" t="n">
         <v>295.8</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="X28" s="3" t="n">
         <v>474.7</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Y28" s="3" t="n">
         <v>911</v>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="Z28" s="3" t="n">
         <v>71607</v>
       </c>
       <c r="AA28" s="7" t="n">
@@ -6424,8 +6439,8 @@
         <v>0.103149369264742</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="6" t="n">
@@ -6461,13 +6476,13 @@
       <c r="L29" s="10" t="n">
         <v>28.5</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29" s="3" t="n">
         <v>74549</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="N29" s="3" t="n">
         <v>72243</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="O29" s="3" t="n">
         <v>3480</v>
       </c>
       <c r="P29" s="10" t="n">
@@ -6476,25 +6491,25 @@
       <c r="Q29" s="10" t="n">
         <v>7.64</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="R29" s="3" t="n">
         <v>151.8</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="S29" s="3" t="n">
         <v>185.8</v>
       </c>
       <c r="T29" s="10" t="n">
         <v>60400</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="U29" s="3" t="n">
         <v>659373</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="V29" s="3" t="n">
         <v>417</v>
       </c>
-      <c r="W29" s="0" t="n">
+      <c r="W29" s="3" t="n">
         <v>295.8</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="X29" s="3" t="n">
         <v>474.7</v>
       </c>
       <c r="Y29" s="10" t="n">
@@ -6511,7 +6526,7 @@
       </c>
       <c r="AC29" s="11" t="n">
         <f aca="false">AA29+AB29</f>
-        <v>0.0608870652485499</v>
+        <v>0.06088706524855</v>
       </c>
       <c r="AD29" s="7" t="n">
         <v>0.038501754273883</v>
@@ -6521,10 +6536,10 @@
       </c>
       <c r="AF29" s="8" t="n">
         <f aca="false">AD29+AE29</f>
-        <v>0.0894155245985075</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.0894155245985076</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -6540,66 +6555,66 @@
       <c r="N30" s="12"/>
       <c r="Q30" s="13"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="AC31" s="14"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="AC32" s="16"/>
-      <c r="AF32" s="17"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="AC33" s="16"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="AC34" s="16"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC35" s="16"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="18"/>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="AC32" s="2"/>
+      <c r="AF32" s="15"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="AC33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="AC34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AC35" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F38" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6619,732 +6634,732 @@
   </sheetPr>
   <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V40" activeCellId="0" sqref="V40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="21.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="19" t="n">
+      <c r="B2" s="2" t="n">
         <v>166.2</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="19" t="n">
+      <c r="B3" s="2" t="n">
         <v>165.7</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="3" t="n">
         <f aca="false">(B3-B2)/B2%</f>
         <v>-0.300842358604091</v>
       </c>
-      <c r="D3" s="0" t="str">
+      <c r="D3" s="3" t="str">
         <f aca="false">IF(OR(C3&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C3&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="19" t="n">
+      <c r="B4" s="2" t="n">
         <v>166.1</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="3" t="n">
         <f aca="false">(B4-B3)/B3%</f>
         <v>0.241400120700064</v>
       </c>
-      <c r="D4" s="0" t="str">
+      <c r="D4" s="3" t="str">
         <f aca="false">IF(OR(C4&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C4&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="19" t="n">
+      <c r="B5" s="2" t="n">
         <v>167.7</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="3" t="n">
         <f aca="false">(B5-B4)/B4%</f>
         <v>0.963275135460563</v>
       </c>
-      <c r="D5" s="0" t="str">
+      <c r="D5" s="3" t="str">
         <f aca="false">IF(OR(C5&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C5&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>True</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="19" t="n">
+      <c r="B6" s="2" t="n">
         <v>170.1</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="3" t="n">
         <f aca="false">(B6-B5)/B5%</f>
         <v>1.43112701252237</v>
       </c>
-      <c r="D6" s="0" t="str">
+      <c r="D6" s="3" t="str">
         <f aca="false">IF(OR(C6&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C6&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>True</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="19" t="n">
+      <c r="B7" s="2" t="n">
         <v>171.7</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="3" t="n">
         <f aca="false">(B7-B6)/B6%</f>
         <v>0.940623162845382</v>
       </c>
-      <c r="D7" s="0" t="str">
+      <c r="D7" s="3" t="str">
         <f aca="false">IF(OR(C7&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C7&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="19" t="n">
+      <c r="B8" s="2" t="n">
         <v>172.6</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="3" t="n">
         <f aca="false">(B8-B7)/B7%</f>
         <v>0.524170064065233</v>
       </c>
-      <c r="D8" s="0" t="str">
+      <c r="D8" s="3" t="str">
         <f aca="false">IF(OR(C8&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C8&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="19" t="n">
+      <c r="B9" s="2" t="n">
         <v>173.4</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="3" t="n">
         <f aca="false">(B9-B8)/B8%</f>
         <v>0.463499420625731</v>
       </c>
-      <c r="D9" s="0" t="str">
+      <c r="D9" s="3" t="str">
         <f aca="false">IF(OR(C9&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C9&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="19" t="n">
+      <c r="B10" s="2" t="n">
         <v>174.3</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="3" t="n">
         <f aca="false">(B10-B9)/B9%</f>
         <v>0.519031141868515</v>
       </c>
-      <c r="D10" s="0" t="str">
+      <c r="D10" s="3" t="str">
         <f aca="false">IF(OR(C10&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C10&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="19" t="n">
+      <c r="B11" s="2" t="n">
         <v>175.3</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="3" t="n">
         <f aca="false">(B11-B10)/B10%</f>
         <v>0.57372346528973</v>
       </c>
-      <c r="D11" s="0" t="str">
+      <c r="D11" s="3" t="str">
         <f aca="false">IF(OR(C11&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C11&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="19" t="n">
+      <c r="B12" s="2" t="n">
         <v>176.7</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="3" t="n">
         <f aca="false">(B12-B11)/B11%</f>
         <v>0.798630918425543</v>
       </c>
-      <c r="D12" s="0" t="str">
+      <c r="D12" s="3" t="str">
         <f aca="false">IF(OR(C12&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C12&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="19" t="n">
+      <c r="B13" s="2" t="n">
         <v>176.5</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="3" t="n">
         <f aca="false">(B13-B12)/B12%</f>
         <v>-0.113186191284657</v>
       </c>
-      <c r="D13" s="0" t="str">
+      <c r="D13" s="3" t="str">
         <f aca="false">IF(OR(C13&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C13&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="19" t="n">
+      <c r="B14" s="2" t="n">
         <v>175.7</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="3" t="n">
         <f aca="false">(B14-B13)/B13%</f>
         <v>-0.453257790368278</v>
       </c>
-      <c r="D14" s="0" t="str">
+      <c r="D14" s="3" t="str">
         <f aca="false">IF(OR(C14&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C14&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="19" t="n">
+      <c r="B15" s="2" t="n">
         <v>176.5</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="3" t="n">
         <f aca="false">(B15-B14)/B14%</f>
         <v>0.455321570859426</v>
       </c>
-      <c r="D15" s="0" t="str">
+      <c r="D15" s="3" t="str">
         <f aca="false">IF(OR(C15&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C15&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="19" t="n">
+      <c r="B16" s="2" t="n">
         <v>176.8</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="3" t="n">
         <f aca="false">(B16-B15)/B15%</f>
         <v>0.169971671388108</v>
       </c>
-      <c r="D16" s="0" t="str">
+      <c r="D16" s="3" t="str">
         <f aca="false">IF(OR(C16&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C16&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="19" t="n">
+      <c r="B17" s="2" t="n">
         <v>177.2</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="3" t="n">
         <f aca="false">(B17-B16)/B16%</f>
         <v>0.22624434389139</v>
       </c>
-      <c r="D17" s="0" t="str">
+      <c r="D17" s="3" t="str">
         <f aca="false">IF(OR(C17&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C17&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="19" t="n">
+      <c r="B18" s="2" t="n">
         <v>178.1</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="3" t="n">
         <f aca="false">(B18-B17)/B17%</f>
         <v>0.507900677200906</v>
       </c>
-      <c r="D18" s="0" t="str">
+      <c r="D18" s="3" t="str">
         <f aca="false">IF(OR(C18&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C18&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="19" t="n">
+      <c r="B19" s="2" t="n">
         <v>179.1</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="3" t="n">
         <f aca="false">(B19-B18)/B18%</f>
         <v>0.561482313307131</v>
       </c>
-      <c r="D19" s="0" t="str">
+      <c r="D19" s="3" t="str">
         <f aca="false">IF(OR(C19&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C19&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="19" t="n">
+      <c r="B20" s="2" t="n">
         <v>181</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="3" t="n">
         <f aca="false">(B20-B19)/B19%</f>
         <v>1.06085985482971</v>
       </c>
-      <c r="D20" s="0" t="str">
+      <c r="D20" s="3" t="str">
         <f aca="false">IF(OR(C20&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C20&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>True</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="19" t="n">
+      <c r="B21" s="2" t="n">
         <v>186.3</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="3" t="n">
         <f aca="false">(B21-B20)/B20%</f>
         <v>2.92817679558012</v>
       </c>
-      <c r="D21" s="0" t="str">
+      <c r="D21" s="3" t="str">
         <f aca="false">IF(OR(C21&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C21&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>True</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="19" t="n">
+      <c r="B22" s="2" t="n">
         <v>186.2</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="3" t="n">
         <f aca="false">(B22-B21)/B21%</f>
         <v>-0.0536768652710804</v>
       </c>
-      <c r="D22" s="0" t="str">
+      <c r="D22" s="3" t="str">
         <f aca="false">IF(OR(C22&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C22&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="19" t="n">
+      <c r="B23" s="2" t="n">
         <v>184.1</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="3" t="n">
         <f aca="false">(B23-B22)/B22%</f>
         <v>-1.12781954887218</v>
       </c>
-      <c r="D23" s="0" t="str">
+      <c r="D23" s="3" t="str">
         <f aca="false">IF(OR(C23&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C23&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>True</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="19" t="n">
+      <c r="B24" s="2" t="n">
         <v>185.3</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="3" t="n">
         <f aca="false">(B24-B23)/B23%</f>
         <v>0.651819663226517</v>
       </c>
-      <c r="D24" s="0" t="str">
+      <c r="D24" s="3" t="str">
         <f aca="false">IF(OR(C24&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C24&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="19" t="n">
+      <c r="B25" s="2" t="n">
         <v>186.3</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="3" t="n">
         <f aca="false">(B25-B24)/B24%</f>
         <v>0.539665407447383</v>
       </c>
-      <c r="D25" s="0" t="str">
+      <c r="D25" s="3" t="str">
         <f aca="false">IF(OR(C25&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C25&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="19" t="n">
+      <c r="B26" s="2" t="n">
         <v>185.7</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="3" t="n">
         <f aca="false">(B26-B25)/B25%</f>
         <v>-0.322061191626421</v>
       </c>
-      <c r="D26" s="0" t="str">
+      <c r="D26" s="3" t="str">
         <f aca="false">IF(OR(C26&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C26&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="19" t="n">
+      <c r="B27" s="2" t="n">
         <v>185.5</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="3" t="n">
         <f aca="false">(B27-B26)/B26%</f>
         <v>-0.107700592353252</v>
       </c>
-      <c r="D27" s="0" t="str">
+      <c r="D27" s="3" t="str">
         <f aca="false">IF(OR(C27&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C27&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19" t="s">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="19" t="n">
+      <c r="B28" s="2" t="n">
         <v>185.8</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="3" t="n">
         <f aca="false">(B28-B27)/B27%</f>
         <v>0.161725067385451</v>
       </c>
-      <c r="D28" s="0" t="str">
+      <c r="D28" s="3" t="str">
         <f aca="false">IF(OR(C28&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C28&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19" t="s">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="19" t="n">
+      <c r="B29" s="2" t="n">
         <v>185.8</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="3" t="n">
         <f aca="false">(B29-B28)/B28%</f>
         <v>0</v>
       </c>
-      <c r="D29" s="0" t="str">
+      <c r="D29" s="3" t="str">
         <f aca="false">IF(OR(C29&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C29&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="19" t="n">
+      <c r="B30" s="2" t="n">
         <v>186.7</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="3" t="n">
         <f aca="false">(B30-B29)/B29%</f>
         <v>0.484391819160375</v>
       </c>
-      <c r="D30" s="0" t="str">
+      <c r="D30" s="3" t="str">
         <f aca="false">IF(OR(C30&gt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.85),C30&lt;_xlfn.PERCENTILE.EXC($C$3:$C$30,0.05)),"True","False")</f>
         <v>False</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21" t="n">
+    <row r="32" s="2" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="17" t="n">
         <v>45382</v>
       </c>
-      <c r="B32" s="22" t="n">
+      <c r="B32" s="18" t="n">
         <v>177.123169</v>
       </c>
-      <c r="C32" s="22" t="n">
+      <c r="C32" s="18" t="n">
         <v>184.464188</v>
       </c>
-      <c r="D32" s="22" t="n">
+      <c r="D32" s="18" t="n">
         <v>189.050369</v>
       </c>
-      <c r="E32" s="22" t="n">
+      <c r="E32" s="18" t="n">
         <v>186.749115</v>
       </c>
-      <c r="F32" s="22" t="n">
+      <c r="F32" s="18" t="n">
         <v>184.72554</v>
       </c>
-      <c r="G32" s="22" t="n">
+      <c r="G32" s="18" t="n">
         <v>186.293045</v>
       </c>
-      <c r="H32" s="22" t="n">
+      <c r="H32" s="18" t="n">
         <v>182.969208</v>
       </c>
-      <c r="I32" s="22" t="n">
+      <c r="I32" s="18" t="n">
         <v>67515.507812</v>
       </c>
-      <c r="J32" s="22" t="n">
+      <c r="J32" s="18" t="n">
         <v>150.235397</v>
       </c>
-      <c r="K32" s="22" t="n">
+      <c r="K32" s="18" t="n">
         <v>7.167828</v>
       </c>
-      <c r="L32" s="22" t="n">
+      <c r="L32" s="18" t="n">
         <v>135.074799</v>
       </c>
-      <c r="M32" s="22" t="n">
+      <c r="M32" s="18" t="n">
         <v>75818.382812</v>
       </c>
-      <c r="N32" s="22" t="n">
+      <c r="N32" s="18" t="n">
         <v>79228.375</v>
       </c>
-      <c r="O32" s="22" t="n">
+      <c r="O32" s="18" t="n">
         <v>2813.501221</v>
       </c>
-      <c r="P32" s="22" t="n">
+      <c r="P32" s="18" t="n">
         <v>5448.213379</v>
       </c>
-      <c r="Q32" s="22" t="n">
+      <c r="Q32" s="18" t="n">
         <v>8.308447</v>
       </c>
-      <c r="R32" s="22" t="n">
+      <c r="R32" s="18" t="n">
         <v>150.912384</v>
       </c>
-      <c r="S32" s="22" t="n">
+      <c r="S32" s="18" t="n">
         <v>182.572342</v>
       </c>
-      <c r="T32" s="22" t="n">
+      <c r="T32" s="18" t="n">
         <v>68448.226562</v>
       </c>
-      <c r="U32" s="22" t="n">
+      <c r="U32" s="18" t="n">
         <v>661390.0625</v>
       </c>
-      <c r="V32" s="22" t="n">
+      <c r="V32" s="18" t="n">
         <v>407.794617</v>
       </c>
-      <c r="W32" s="22" t="n">
+      <c r="W32" s="18" t="n">
         <v>284.530334</v>
       </c>
-      <c r="X32" s="22" t="n">
+      <c r="X32" s="18" t="n">
         <v>467.506592</v>
       </c>
-      <c r="Y32" s="22" t="n">
+      <c r="Y32" s="18" t="n">
         <v>924.802063</v>
       </c>
-      <c r="Z32" s="22" t="n">
+      <c r="Z32" s="18" t="n">
         <v>84559.273438</v>
       </c>
-      <c r="AA32" s="0"/>
-      <c r="AB32" s="0"/>
-      <c r="AC32" s="23" t="n">
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="19" t="n">
         <v>0.063194</v>
       </c>
-      <c r="AD32" s="0"/>
-      <c r="AE32" s="0"/>
-      <c r="AF32" s="0"/>
-    </row>
-    <row r="33" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+    </row>
+    <row r="33" s="2" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
-      <c r="B33" s="24" t="n">
+      <c r="B33" s="2" t="n">
         <f aca="false">(Master!B29-B32)/B32</f>
         <v>0.00607956037642935</v>
       </c>
-      <c r="C33" s="24" t="n">
+      <c r="C33" s="2" t="n">
         <f aca="false">(Master!C29-C32)/C32</f>
         <v>-0.00143219127172814</v>
       </c>
-      <c r="D33" s="24" t="n">
+      <c r="D33" s="2" t="n">
         <f aca="false">(Master!D29-D32)/D32</f>
         <v>0.00872588087886779</v>
       </c>
-      <c r="E33" s="24" t="n">
+      <c r="E33" s="2" t="n">
         <f aca="false">(Master!E29-E32)/E32</f>
         <v>-0.0586300770421321</v>
       </c>
-      <c r="F33" s="24" t="n">
+      <c r="F33" s="2" t="n">
         <f aca="false">(Master!F29-F32)/F32</f>
         <v>-0.00609303943569471</v>
       </c>
-      <c r="G33" s="24" t="n">
+      <c r="G33" s="2" t="n">
         <f aca="false">(Master!G29-G32)/G32</f>
         <v>0.00808916403722965</v>
       </c>
-      <c r="H33" s="24" t="n">
+      <c r="H33" s="2" t="n">
         <f aca="false">(Master!H29-H32)/H32</f>
         <v>0.0613807761577018</v>
       </c>
-      <c r="I33" s="24" t="n">
+      <c r="I33" s="2" t="n">
         <f aca="false">(Master!I29-I32)/I32</f>
         <v>0.0908804863778192</v>
       </c>
-      <c r="J33" s="24" t="n">
+      <c r="J33" s="2" t="n">
         <f aca="false">(Master!J29-J32)/J32</f>
         <v>0.0104143432988699</v>
       </c>
-      <c r="K33" s="24" t="n">
+      <c r="K33" s="2" t="n">
         <f aca="false">(Master!K29-K32)/K32</f>
         <v>-0.0931702044189677</v>
       </c>
-      <c r="L33" s="24" t="n">
+      <c r="L33" s="2" t="n">
         <f aca="false">(Master!L29-L32)/L32</f>
         <v>-0.789005793745434</v>
       </c>
-      <c r="M33" s="24" t="n">
+      <c r="M33" s="2" t="n">
         <f aca="false">(Master!M29-M32)/M32</f>
         <v>-0.0167424147669777</v>
       </c>
-      <c r="N33" s="24" t="n">
+      <c r="N33" s="2" t="n">
         <f aca="false">(Master!N29-N32)/N32</f>
         <v>-0.0881675914721209</v>
       </c>
-      <c r="O33" s="24" t="n">
+      <c r="O33" s="2" t="n">
         <f aca="false">(Master!O29-O32)/O32</f>
         <v>0.23689301217474</v>
       </c>
-      <c r="P33" s="24" t="n">
+      <c r="P33" s="2" t="n">
         <f aca="false">(Master!P29-P32)/P32</f>
         <v>-0.123932990877816</v>
       </c>
-      <c r="Q33" s="24" t="n">
+      <c r="Q33" s="2" t="n">
         <f aca="false">(Master!Q29-Q32)/Q32</f>
         <v>-0.0804539043217101</v>
       </c>
-      <c r="R33" s="24" t="n">
+      <c r="R33" s="2" t="n">
         <f aca="false">(Master!R29-R32)/R32</f>
         <v>0.0058816644232458</v>
       </c>
-      <c r="S33" s="24" t="n">
+      <c r="S33" s="2" t="n">
         <f aca="false">(Master!S29-S32)/S32</f>
         <v>0.0176787894849923</v>
       </c>
-      <c r="T33" s="24" t="n">
+      <c r="T33" s="2" t="n">
         <f aca="false">(Master!T29-T32)/T32</f>
         <v>-0.117581228415172</v>
       </c>
-      <c r="U33" s="24" t="n">
+      <c r="U33" s="2" t="n">
         <f aca="false">(Master!U29-U32)/U32</f>
         <v>-0.00304973209360853</v>
       </c>
-      <c r="V33" s="24" t="n">
+      <c r="V33" s="2" t="n">
         <f aca="false">(Master!V29-V32)/V32</f>
         <v>0.0225735765413499</v>
       </c>
-      <c r="W33" s="24" t="n">
+      <c r="W33" s="2" t="n">
         <f aca="false">(Master!W29-W32)/W32</f>
         <v>0.0396079596912153</v>
       </c>
-      <c r="X33" s="24" t="n">
+      <c r="X33" s="2" t="n">
         <f aca="false">(Master!X29-X32)/X32</f>
         <v>0.0153867520225254</v>
       </c>
-      <c r="Y33" s="24" t="n">
+      <c r="Y33" s="2" t="n">
         <f aca="false">(Master!Y29-Y32)/Y32</f>
         <v>-0.504758890227519</v>
       </c>
-      <c r="Z33" s="24" t="n">
+      <c r="Z33" s="2" t="n">
         <f aca="false">(Master!Z29-Z32)/Z32</f>
         <v>-0.147012538454635</v>
       </c>
-      <c r="AA33" s="24" t="e">
+      <c r="AA33" s="2" t="e">
         <f aca="false">(Master!AA29-AA32)/AA32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB33" s="24" t="e">
+      <c r="AB33" s="2" t="e">
         <f aca="false">(Master!AB29-AB32)/AB32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC33" s="24" t="n">
+      <c r="AC33" s="2" t="n">
         <f aca="false">AC32-Master!AC29</f>
-        <v>0.00230693475145007</v>
-      </c>
-      <c r="AD33" s="0"/>
-      <c r="AE33" s="0"/>
-      <c r="AF33" s="0"/>
-    </row>
-    <row r="34" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="0"/>
-      <c r="U34" s="0"/>
-      <c r="V34" s="0"/>
-      <c r="W34" s="0"/>
-      <c r="X34" s="0"/>
-      <c r="Y34" s="0"/>
-      <c r="Z34" s="0"/>
+        <v>0.00230693475145</v>
+      </c>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+    </row>
+    <row r="34" s="2" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
       <c r="AC34" s="8"/>
@@ -7352,51 +7367,51 @@
       <c r="AE34" s="7"/>
       <c r="AF34" s="8"/>
     </row>
-    <row r="35" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="2" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="0" t="s">
+      <c r="L35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M35" s="0"/>
-      <c r="N35" s="0"/>
-      <c r="O35" s="0"/>
-      <c r="P35" s="0"/>
-      <c r="Q35" s="0" t="s">
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R35" s="0"/>
-      <c r="S35" s="0"/>
-      <c r="T35" s="0"/>
-      <c r="U35" s="0"/>
-      <c r="V35" s="0"/>
-      <c r="W35" s="0"/>
-      <c r="X35" s="0"/>
-      <c r="Y35" s="0"/>
-      <c r="Z35" s="0"/>
-      <c r="AA35" s="0"/>
-      <c r="AB35" s="0"/>
-      <c r="AC35" s="0"/>
-      <c r="AD35" s="0"/>
-      <c r="AE35" s="0"/>
-      <c r="AF35" s="0"/>
-    </row>
-    <row r="39" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="19" t="s">
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+    </row>
+    <row r="39" s="2" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="19" t="str">
+      <c r="B39" s="2" t="str">
         <f aca="false">TEXT(A39,"MMMM")&amp;" "&amp; YEAR(A39)</f>
         <v>April 2024</v>
       </c>
@@ -7418,7 +7433,7 @@
       <c r="H39" s="6" t="n">
         <v>188.5</v>
       </c>
-      <c r="I39" s="15"/>
+      <c r="I39" s="6"/>
       <c r="J39" s="6" t="n">
         <v>74482.78</v>
       </c>
@@ -7428,21 +7443,21 @@
       <c r="L39" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="M39" s="0"/>
-      <c r="N39" s="0"/>
-      <c r="O39" s="0"/>
-      <c r="P39" s="0"/>
-      <c r="Q39" s="0"/>
-      <c r="R39" s="0"/>
-      <c r="S39" s="0"/>
-      <c r="T39" s="0"/>
-      <c r="U39" s="0"/>
-      <c r="V39" s="0"/>
-      <c r="W39" s="0"/>
-      <c r="X39" s="0"/>
-      <c r="Y39" s="0"/>
-      <c r="Z39" s="0"/>
-      <c r="AA39" s="0"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
       <c r="AB39" s="7" t="n">
         <v>0.0422686260682208</v>
       </c>
@@ -7451,7 +7466,7 @@
       </c>
       <c r="AD39" s="8" t="n">
         <f aca="false">AB39+AC39</f>
-        <v>0.0733300859630611</v>
+        <v>0.0733300859630612</v>
       </c>
       <c r="AE39" s="7" t="n">
         <v>0.0441864704398664</v>
@@ -7464,202 +7479,202 @@
         <v>0.0995384954191549</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="26" t="n">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C40" s="21" t="n">
         <v>190.444809</v>
       </c>
-      <c r="D40" s="26" t="n">
+      <c r="D40" s="21" t="n">
         <v>197.98378</v>
       </c>
-      <c r="E40" s="26" t="n">
+      <c r="E40" s="21" t="n">
         <v>200.56546</v>
       </c>
-      <c r="F40" s="26" t="n">
+      <c r="F40" s="21" t="n">
         <v>176.3246</v>
       </c>
-      <c r="G40" s="26" t="n">
+      <c r="G40" s="21" t="n">
         <v>188.251999</v>
       </c>
-      <c r="H40" s="26" t="n">
+      <c r="H40" s="21" t="n">
         <v>197.246536</v>
       </c>
-      <c r="I40" s="26" t="n">
+      <c r="I40" s="21" t="n">
         <v>187.629974</v>
       </c>
-      <c r="J40" s="26" t="n">
+      <c r="J40" s="21" t="n">
         <v>63676.640625</v>
       </c>
-      <c r="K40" s="26" t="n">
+      <c r="K40" s="21" t="n">
         <v>146.174866</v>
       </c>
-      <c r="L40" s="26" t="n">
+      <c r="L40" s="21" t="n">
         <v>6.653265</v>
       </c>
-      <c r="M40" s="26" t="n">
+      <c r="M40" s="21" t="n">
         <v>10.885822</v>
       </c>
-      <c r="N40" s="26" t="n">
+      <c r="N40" s="21" t="n">
         <v>7.595969</v>
       </c>
-      <c r="O40" s="26" t="n">
+      <c r="O40" s="21" t="n">
         <v>131.8078</v>
       </c>
-      <c r="P40" s="26" t="n">
+      <c r="P40" s="21" t="n">
         <v>174.006134</v>
       </c>
-      <c r="Q40" s="26" t="n">
+      <c r="Q40" s="21" t="n">
         <v>729729.5</v>
       </c>
-      <c r="R40" s="26" t="n">
+      <c r="R40" s="21" t="n">
         <v>399.112793</v>
       </c>
-      <c r="S40" s="26" t="n">
+      <c r="S40" s="21" t="n">
         <v>288.894165</v>
       </c>
-      <c r="T40" s="26" t="n">
+      <c r="T40" s="21" t="n">
         <v>0.086167</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="27" t="s">
+    <row r="42" s="2" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="27" t="n">
+      <c r="C42" s="22" t="n">
         <v>181.149612</v>
       </c>
-      <c r="D42" s="27" t="n">
+      <c r="D42" s="22" t="n">
         <v>183.873123</v>
       </c>
-      <c r="E42" s="27" t="n">
+      <c r="E42" s="22" t="n">
         <v>195.674774</v>
       </c>
-      <c r="F42" s="27" t="n">
+      <c r="F42" s="22" t="n">
         <v>178.521133</v>
       </c>
-      <c r="G42" s="27" t="n">
+      <c r="G42" s="22" t="n">
         <v>184.710388</v>
       </c>
-      <c r="H42" s="27" t="n">
+      <c r="H42" s="22" t="n">
         <v>191.806763</v>
       </c>
-      <c r="I42" s="27" t="n">
+      <c r="I42" s="22" t="n">
         <v>173.893936</v>
       </c>
-      <c r="J42" s="27" t="n">
+      <c r="J42" s="22" t="n">
         <v>72433.84375</v>
       </c>
-      <c r="K42" s="27" t="n">
+      <c r="K42" s="22" t="n">
         <v>154.428329</v>
       </c>
-      <c r="L42" s="27" t="n">
+      <c r="L42" s="22" t="n">
         <v>7.064018</v>
       </c>
-      <c r="M42" s="27" t="n">
+      <c r="M42" s="22" t="n">
         <v>107.193016</v>
       </c>
-      <c r="N42" s="0"/>
-      <c r="O42" s="0"/>
-      <c r="P42" s="0"/>
-      <c r="Q42" s="0"/>
-      <c r="R42" s="27" t="n">
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="22" t="n">
         <v>8.430929</v>
       </c>
-      <c r="S42" s="27" t="n">
+      <c r="S42" s="22" t="n">
         <v>150.975525</v>
       </c>
-      <c r="T42" s="27" t="n">
+      <c r="T42" s="22" t="n">
         <v>191.358139</v>
       </c>
-      <c r="U42" s="0"/>
-      <c r="V42" s="27" t="n">
+      <c r="U42" s="3"/>
+      <c r="V42" s="22" t="n">
         <v>658852.125</v>
       </c>
-      <c r="W42" s="27" t="n">
+      <c r="W42" s="22" t="n">
         <v>408.750214</v>
       </c>
-      <c r="X42" s="27" t="n">
+      <c r="X42" s="22" t="n">
         <v>288.515137</v>
       </c>
-      <c r="Y42" s="0"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AC42" s="0"/>
-      <c r="AD42" s="27" t="n">
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="23"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="22" t="n">
         <v>0.083001</v>
       </c>
-      <c r="AE42" s="0"/>
-      <c r="AF42" s="0"/>
-      <c r="AG42" s="0"/>
-    </row>
-    <row r="43" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+    </row>
+    <row r="43" s="2" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="21" t="n">
+      <c r="B43" s="17" t="n">
         <v>45382</v>
       </c>
-      <c r="C43" s="22" t="n">
+      <c r="C43" s="18" t="n">
         <v>177.576431</v>
       </c>
-      <c r="D43" s="22" t="n">
+      <c r="D43" s="18" t="n">
         <v>185.621002</v>
       </c>
-      <c r="E43" s="22" t="n">
+      <c r="E43" s="18" t="n">
         <v>188.660095</v>
       </c>
-      <c r="F43" s="22" t="n">
+      <c r="F43" s="18" t="n">
         <v>187.308044</v>
       </c>
-      <c r="G43" s="22" t="n">
+      <c r="G43" s="18" t="n">
         <v>186.486893</v>
       </c>
-      <c r="H43" s="22" t="n">
+      <c r="H43" s="18" t="n">
         <v>186.008804</v>
       </c>
-      <c r="I43" s="22" t="n">
+      <c r="I43" s="18" t="n">
         <v>178.367966</v>
       </c>
-      <c r="J43" s="22" t="n">
+      <c r="J43" s="18" t="n">
         <v>64194.761719</v>
       </c>
-      <c r="K43" s="22" t="n">
+      <c r="K43" s="18" t="n">
         <v>151.228149</v>
       </c>
-      <c r="L43" s="22" t="n">
+      <c r="L43" s="18" t="n">
         <v>6.984948</v>
       </c>
-      <c r="M43" s="22" t="n">
+      <c r="M43" s="18" t="n">
         <v>232.450836</v>
       </c>
-      <c r="N43" s="0"/>
-      <c r="O43" s="0"/>
-      <c r="P43" s="0"/>
-      <c r="Q43" s="0"/>
-      <c r="R43" s="22" t="n">
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="18" t="n">
         <v>7.895594</v>
       </c>
-      <c r="S43" s="22" t="n">
+      <c r="S43" s="18" t="n">
         <v>152.080322</v>
       </c>
-      <c r="T43" s="22" t="n">
+      <c r="T43" s="18" t="n">
         <v>184.38385</v>
       </c>
-      <c r="U43" s="0"/>
-      <c r="V43" s="22" t="n">
+      <c r="U43" s="3"/>
+      <c r="V43" s="18" t="n">
         <v>659646.625</v>
       </c>
-      <c r="W43" s="22" t="n">
+      <c r="W43" s="18" t="n">
         <v>405.939178</v>
       </c>
-      <c r="X43" s="22" t="n">
+      <c r="X43" s="18" t="n">
         <v>290.140991</v>
       </c>
-      <c r="Y43" s="0"/>
-      <c r="Z43" s="0"/>
-      <c r="AA43" s="0"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
       <c r="AB43" s="7"/>
       <c r="AC43" s="7"/>
-      <c r="AD43" s="22" t="n">
+      <c r="AD43" s="18" t="n">
         <v>0.076401</v>
       </c>
       <c r="AE43" s="7"/>
@@ -7671,8 +7686,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7684,60 +7699,61 @@
   </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="2" style="2" width="20.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1005" min="14" style="2" width="20.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="2" style="2" width="12.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1004" min="13" style="2" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1005" style="3" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="n">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="24" t="n">
         <v>44561</v>
       </c>
       <c r="B2" s="6" t="n">
@@ -7770,15 +7786,15 @@
       <c r="K2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="3" t="n">
         <v>20.5</v>
       </c>
-      <c r="M2" s="8" t="n">
-        <v>0.323099274788962</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="n">
+      <c r="M2" s="25" t="n">
+        <v>0.323099274788961</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="24" t="n">
         <v>44592</v>
       </c>
       <c r="B3" s="6" t="n">
@@ -7811,15 +7827,15 @@
       <c r="K3" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="3" t="n">
         <v>39.6</v>
       </c>
-      <c r="M3" s="8" t="n">
-        <v>0.298518987053799</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="n">
+      <c r="M3" s="25" t="n">
+        <v>0.2985189870538</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="24" t="n">
         <v>44620</v>
       </c>
       <c r="B4" s="6" t="n">
@@ -7852,15 +7868,15 @@
       <c r="K4" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="3" t="n">
         <v>19.1</v>
       </c>
-      <c r="M4" s="8" t="n">
+      <c r="M4" s="25" t="n">
         <v>0.266256675017402</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="n">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="24" t="n">
         <v>44651</v>
       </c>
       <c r="B5" s="6" t="n">
@@ -7893,15 +7909,15 @@
       <c r="K5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="3" t="n">
         <v>8.9</v>
       </c>
-      <c r="M5" s="8" t="n">
+      <c r="M5" s="25" t="n">
         <v>0.218368999696368</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29" t="n">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="24" t="n">
         <v>44681</v>
       </c>
       <c r="B6" s="6" t="n">
@@ -7934,15 +7950,15 @@
       <c r="K6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="3" t="n">
         <v>38.4</v>
       </c>
-      <c r="M6" s="8" t="n">
-        <v>0.211446094912881</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29" t="n">
+      <c r="M6" s="25" t="n">
+        <v>0.21144609491288</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="24" t="n">
         <v>44712</v>
       </c>
       <c r="B7" s="6" t="n">
@@ -7975,15 +7991,15 @@
       <c r="K7" s="6" t="n">
         <v>4.4</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="3" t="n">
         <v>83.4</v>
       </c>
-      <c r="M7" s="8" t="n">
-        <v>0.201363329381099</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="n">
+      <c r="M7" s="25" t="n">
+        <v>0.2013633293811</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="24" t="n">
         <v>44742</v>
       </c>
       <c r="B8" s="6" t="n">
@@ -8016,15 +8032,15 @@
       <c r="K8" s="6" t="n">
         <v>4.9</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="3" t="n">
         <v>152.3</v>
       </c>
-      <c r="M8" s="8" t="n">
+      <c r="M8" s="25" t="n">
         <v>0.195836648679028</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="n">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="24" t="n">
         <v>44773</v>
       </c>
       <c r="B9" s="6" t="n">
@@ -8057,15 +8073,15 @@
       <c r="K9" s="6" t="n">
         <v>4.9</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="3" t="n">
         <v>327.7</v>
       </c>
-      <c r="M9" s="8" t="n">
-        <v>0.188679492225617</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="n">
+      <c r="M9" s="25" t="n">
+        <v>0.188679492225616</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="24" t="n">
         <v>44804</v>
       </c>
       <c r="B10" s="6" t="n">
@@ -8098,15 +8114,15 @@
       <c r="K10" s="6" t="n">
         <v>5.4</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="3" t="n">
         <v>263.7</v>
       </c>
-      <c r="M10" s="8" t="n">
-        <v>0.184666775406422</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="n">
+      <c r="M10" s="25" t="n">
+        <v>0.184666775406423</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="24" t="n">
         <v>44834</v>
       </c>
       <c r="B11" s="6" t="n">
@@ -8139,15 +8155,15 @@
       <c r="K11" s="6" t="n">
         <v>5.9</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="3" t="n">
         <v>181.3</v>
       </c>
-      <c r="M11" s="8" t="n">
+      <c r="M11" s="25" t="n">
         <v>0.17080981543618</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="n">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="24" t="n">
         <v>44865</v>
       </c>
       <c r="B12" s="6" t="n">
@@ -8180,15 +8196,15 @@
       <c r="K12" s="6" t="n">
         <v>5.9</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="3" t="n">
         <v>110.8</v>
       </c>
-      <c r="M12" s="8" t="n">
+      <c r="M12" s="25" t="n">
         <v>0.166366306842905</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29" t="n">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="24" t="n">
         <v>44895</v>
       </c>
       <c r="B13" s="6" t="n">
@@ -8221,15 +8237,15 @@
       <c r="K13" s="6" t="n">
         <v>5.9</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="3" t="n">
         <v>18.7</v>
       </c>
-      <c r="M13" s="8" t="n">
-        <v>0.157290042614947</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="n">
+      <c r="M13" s="25" t="n">
+        <v>0.157290042614946</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="24" t="n">
         <v>44926</v>
       </c>
       <c r="B14" s="6" t="n">
@@ -8262,15 +8278,15 @@
       <c r="K14" s="6" t="n">
         <v>6.25</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="3" t="n">
         <v>13.6</v>
       </c>
-      <c r="M14" s="8" t="n">
+      <c r="M14" s="25" t="n">
         <v>0.140500180331769</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29" t="n">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="24" t="n">
         <v>44957</v>
       </c>
       <c r="B15" s="6" t="n">
@@ -8303,15 +8319,15 @@
       <c r="K15" s="6" t="n">
         <v>6.25</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="3" t="n">
         <v>14.8</v>
       </c>
-      <c r="M15" s="8" t="n">
+      <c r="M15" s="25" t="n">
         <v>0.12898900505419</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29" t="n">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="24" t="n">
         <v>44985</v>
       </c>
       <c r="B16" s="6" t="n">
@@ -8344,15 +8360,15 @@
       <c r="K16" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16" s="3" t="n">
         <v>7.2</v>
       </c>
-      <c r="M16" s="8" t="n">
+      <c r="M16" s="25" t="n">
         <v>0.117841057695285</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="n">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="24" t="n">
         <v>45016</v>
       </c>
       <c r="B17" s="6" t="n">
@@ -8385,15 +8401,15 @@
       <c r="K17" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17" s="3" t="n">
         <v>37.6</v>
       </c>
-      <c r="M17" s="8" t="n">
+      <c r="M17" s="25" t="n">
         <v>0.0981804738049074</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29" t="n">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="24" t="n">
         <v>45046</v>
       </c>
       <c r="B18" s="6" t="n">
@@ -8426,15 +8442,15 @@
       <c r="K18" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="3" t="n">
         <v>41.4</v>
       </c>
-      <c r="M18" s="8" t="n">
+      <c r="M18" s="25" t="n">
         <v>0.10123441462627</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29" t="n">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="24" t="n">
         <v>45077</v>
       </c>
       <c r="B19" s="6" t="n">
@@ -8467,15 +8483,15 @@
       <c r="K19" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19" s="3" t="n">
         <v>67.5</v>
       </c>
-      <c r="M19" s="8" t="n">
-        <v>0.0959990285119777</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29" t="n">
+      <c r="M19" s="25" t="n">
+        <v>0.0959990285119776</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="24" t="n">
         <v>45107</v>
       </c>
       <c r="B20" s="6" t="n">
@@ -8508,15 +8524,15 @@
       <c r="K20" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20" s="3" t="n">
         <v>148.6</v>
       </c>
-      <c r="M20" s="8" t="n">
+      <c r="M20" s="25" t="n">
         <v>0.0960737969827918</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29" t="n">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="24" t="n">
         <v>45138</v>
       </c>
       <c r="B21" s="6" t="n">
@@ -8549,15 +8565,15 @@
       <c r="K21" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21" s="3" t="n">
         <v>318.4</v>
       </c>
-      <c r="M21" s="8" t="n">
+      <c r="M21" s="25" t="n">
         <v>0.0938144695054158</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29" t="n">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="24" t="n">
         <v>45169</v>
       </c>
       <c r="B22" s="6" t="n">
@@ -8590,15 +8606,15 @@
       <c r="K22" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22" s="3" t="n">
         <v>162.7</v>
       </c>
-      <c r="M22" s="8" t="n">
+      <c r="M22" s="25" t="n">
         <v>0.0904857405806026</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29" t="n">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="24" t="n">
         <v>45199</v>
       </c>
       <c r="B23" s="6" t="n">
@@ -8631,15 +8647,15 @@
       <c r="K23" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23" s="3" t="n">
         <v>190</v>
       </c>
-      <c r="M23" s="8" t="n">
-        <v>0.0893791579824202</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29" t="n">
+      <c r="M23" s="25" t="n">
+        <v>0.0893791579824203</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="24" t="n">
         <v>45230</v>
       </c>
       <c r="B24" s="6" t="n">
@@ -8672,15 +8688,15 @@
       <c r="K24" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24" s="3" t="n">
         <v>50.8</v>
       </c>
-      <c r="M24" s="8" t="n">
-        <v>0.0897478372770541</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29" t="n">
+      <c r="M24" s="25" t="n">
+        <v>0.089747837277054</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="24" t="n">
         <v>45260</v>
       </c>
       <c r="B25" s="6" t="n">
@@ -8713,15 +8729,15 @@
       <c r="K25" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25" s="3" t="n">
         <v>34.6</v>
       </c>
-      <c r="M25" s="8" t="n">
+      <c r="M25" s="25" t="n">
         <v>0.0878346141282345</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29" t="n">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="24" t="n">
         <v>45291</v>
       </c>
       <c r="B26" s="6" t="n">
@@ -8754,15 +8770,15 @@
       <c r="K26" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26" s="3" t="n">
         <v>25.5</v>
       </c>
-      <c r="M26" s="8" t="n">
+      <c r="M26" s="25" t="n">
         <v>0.0846628073685867</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29" t="n">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="24" t="n">
         <v>45322</v>
       </c>
       <c r="B27" s="6" t="n">
@@ -8795,15 +8811,15 @@
       <c r="K27" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27" s="3" t="n">
         <v>7.2</v>
       </c>
-      <c r="M27" s="8" t="n">
-        <v>0.0840564780268682</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29" t="n">
+      <c r="M27" s="25" t="n">
+        <v>0.0840564780268683</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="24" t="n">
         <v>45351</v>
       </c>
       <c r="B28" s="6" t="n">
@@ -8836,15 +8852,15 @@
       <c r="K28" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28" s="3" t="n">
         <v>19.7</v>
       </c>
-      <c r="M28" s="8" t="n">
+      <c r="M28" s="25" t="n">
         <v>0.0789190230272816</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29" t="n">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="24" t="n">
         <v>45382</v>
       </c>
       <c r="B29" s="6" t="n">
@@ -8880,12 +8896,11 @@
       <c r="L29" s="10" t="n">
         <v>28.5</v>
       </c>
-      <c r="M29" s="11" t="n">
-        <v>0.0608870652485499</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5"/>
+      <c r="M29" s="25" t="n">
+        <v>0.06088706524855</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -8898,65 +8913,151 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L31" s="2"/>
-      <c r="M31" s="14"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="16"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="16"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="16"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M35" s="16"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="18"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F38" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.99"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="27" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.0789190230272816</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.0658913031220436</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="27" t="n">
+        <v>45382</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.0608870652485499</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.0667380914092064</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="27" t="n">
+        <v>45382</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.0667380839586258</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.0665945336222649</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="27" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.0662661790847778</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/master_sheet_HCV.xlsx
+++ b/master_sheet_HCV.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="80">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -239,17 +239,38 @@
     <t xml:space="preserve">Actuals</t>
   </si>
   <si>
-    <t xml:space="preserve">Predicted</t>
+    <t xml:space="preserve">Predicted – Through Model</t>
   </si>
   <si>
-    <t xml:space="preserve">Forecasted Value</t>
+    <t xml:space="preserve">For April 2024 (Actuals)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For May 2024 (Actuals)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Delinquency </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forecasted Value – Through Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Deviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-4009]dd\-mm\-yyyy;@"/>
     <numFmt numFmtId="166" formatCode="0"/>
@@ -259,6 +280,8 @@
     <numFmt numFmtId="170" formatCode="[$-4009]dd/mm/yy"/>
     <numFmt numFmtId="171" formatCode="#,##0.0000"/>
     <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="173" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="174" formatCode="General"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -354,10 +377,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -386,7 +409,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -495,8 +518,52 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="172" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -6638,7 +6705,7 @@
       <selection pane="topLeft" activeCell="V40" activeCellId="0" sqref="V40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="21.43"/>
   </cols>
@@ -7700,7 +7767,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8975,83 +9042,359 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C2" s="26" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="n">
+      <c r="G2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="J2" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="27"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="28" t="n">
         <v>45351</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B3" s="29" t="n">
         <v>0.0789190230272816</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C3" s="29" t="n">
         <v>0.0658913031220436</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="n">
+      <c r="G3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28" t="n">
         <v>45382</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B4" s="29" t="n">
         <v>0.0608870652485499</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C4" s="29" t="n">
         <v>0.0667380914092064</v>
       </c>
+      <c r="G4" s="30" t="n">
+        <v>45046</v>
+      </c>
+      <c r="H4" s="31" t="n">
+        <v>0.10123441462627</v>
+      </c>
+      <c r="J4" s="30" t="n">
+        <v>45077</v>
+      </c>
+      <c r="K4" s="31" t="n">
+        <v>0.0959990285119776</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="30" t="n">
+        <v>45077</v>
+      </c>
+      <c r="H5" s="31" t="n">
+        <v>0.0959990285119776</v>
+      </c>
+      <c r="J5" s="30" t="n">
+        <v>45107</v>
+      </c>
+      <c r="K5" s="31" t="n">
+        <v>0.0960737969827918</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
+      <c r="G6" s="30" t="n">
+        <v>45107</v>
+      </c>
+      <c r="H6" s="31" t="n">
+        <v>0.0960737969827918</v>
+      </c>
+      <c r="J6" s="30" t="n">
+        <v>45138</v>
+      </c>
+      <c r="K6" s="31" t="n">
+        <v>0.0938144695054158</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27" t="n">
+      <c r="B7" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="30" t="n">
+        <v>45138</v>
+      </c>
+      <c r="H7" s="31" t="n">
+        <v>0.0938144695054158</v>
+      </c>
+      <c r="J7" s="30" t="n">
+        <v>45169</v>
+      </c>
+      <c r="K7" s="31" t="n">
+        <v>0.0904857405806026</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28" t="n">
         <v>45382</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B8" s="29" t="n">
+        <v>0.0609</v>
+      </c>
+      <c r="C8" s="29" t="n">
         <v>0.0667380839586258</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="n">
+      <c r="G8" s="30" t="n">
+        <v>45169</v>
+      </c>
+      <c r="H8" s="31" t="n">
+        <v>0.0904857405806026</v>
+      </c>
+      <c r="J8" s="30" t="n">
+        <v>45199</v>
+      </c>
+      <c r="K8" s="31" t="n">
+        <v>0.0893791579824203</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="28" t="n">
         <v>45412</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B9" s="29" t="n">
+        <v>0.0736</v>
+      </c>
+      <c r="C9" s="29" t="n">
         <v>0.0665945336222649</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="n">
+      <c r="G9" s="30" t="n">
+        <v>45199</v>
+      </c>
+      <c r="H9" s="31" t="n">
+        <v>0.0893791579824203</v>
+      </c>
+      <c r="J9" s="30" t="n">
+        <v>45230</v>
+      </c>
+      <c r="K9" s="31" t="n">
+        <v>0.089747837277054</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="28" t="n">
         <v>45443</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B10" s="29" t="n">
+        <v>0.0705</v>
+      </c>
+      <c r="C10" s="29" t="n">
         <v>0.0662661790847778</v>
       </c>
+      <c r="G10" s="30" t="n">
+        <v>45230</v>
+      </c>
+      <c r="H10" s="31" t="n">
+        <v>0.089747837277054</v>
+      </c>
+      <c r="J10" s="30" t="n">
+        <v>45260</v>
+      </c>
+      <c r="K10" s="31" t="n">
+        <v>0.0878346141282345</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="30" t="n">
+        <v>45260</v>
+      </c>
+      <c r="H11" s="31" t="n">
+        <v>0.0878346141282345</v>
+      </c>
+      <c r="J11" s="30" t="n">
+        <v>45291</v>
+      </c>
+      <c r="K11" s="31" t="n">
+        <v>0.0846628073685867</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="30" t="n">
+        <v>45291</v>
+      </c>
+      <c r="H12" s="31" t="n">
+        <v>0.0846628073685867</v>
+      </c>
+      <c r="J12" s="30" t="n">
+        <v>45322</v>
+      </c>
+      <c r="K12" s="31" t="n">
+        <v>0.0840564780268683</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="30" t="n">
+        <v>45322</v>
+      </c>
+      <c r="H13" s="31" t="n">
+        <v>0.0840564780268683</v>
+      </c>
+      <c r="J13" s="30" t="n">
+        <v>45351</v>
+      </c>
+      <c r="K13" s="31" t="n">
+        <v>0.0789190230272816</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="30" t="n">
+        <v>45351</v>
+      </c>
+      <c r="H14" s="31" t="n">
+        <v>0.0789190230272816</v>
+      </c>
+      <c r="J14" s="30" t="n">
+        <v>45382</v>
+      </c>
+      <c r="K14" s="31" t="n">
+        <v>0.06088706524855</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="30" t="n">
+        <v>45382</v>
+      </c>
+      <c r="H15" s="31" t="n">
+        <v>0.06088706524855</v>
+      </c>
+      <c r="J15" s="33" t="n">
+        <v>45412</v>
+      </c>
+      <c r="K15" s="34" t="n">
+        <v>0.0736</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="35"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="34" t="n">
+        <f aca="false">_xlfn.STDEV.P(H4:H15)</f>
+        <v>0.0099701712577892</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="34" t="n">
+        <f aca="false">_xlfn.STDEV.P(K4:K15)</f>
+        <v>0.0097811100673525</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="37" t="n">
+        <f aca="false">AVERAGE(H4:H15)</f>
+        <v>0.0877578694388378</v>
+      </c>
+      <c r="I19" s="38"/>
+      <c r="J19" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="37" t="n">
+        <f aca="false">AVERAGE(K4:K15)</f>
+        <v>0.0854550015533153</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="37" t="n">
+        <f aca="false">C8-H18</f>
+        <v>0.0567679127008366</v>
+      </c>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="37" t="n">
+        <f aca="false">C10-K18</f>
+        <v>0.0564850690174253</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="37" t="n">
+        <f aca="false">C8+H18</f>
+        <v>0.076708255216415</v>
+      </c>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="37" t="n">
+        <f aca="false">C10+K18</f>
+        <v>0.0760472891521303</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
